--- a/scripts/saidas/sisdgf/processos_cip.xlsx
+++ b/scripts/saidas/sisdgf/processos_cip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,239 +473,239 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>600443/2019</t>
+          <t>001795/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREFEITURA MUNICIPAL DE JARDIM DE ANGICOS                                                                                                                                                                                                                      </t>
+          <t>PREFEITURA MUNICIPAL DE CEARÁ-MIRIM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>GEORGE MONTENEGRO SOARES</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>03/02/2025</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Análise de despesas e gestão fiscal municipal.</t>
+          <t>Irregularidades em concurso público de Ceará-Mirim.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Encaminhamento à Diretoria de Controle de Pessoal e Previdência para análise dos quesitos, com sugestão de remessa posterior à Diretoria de Controle de Contas de Governo e Gestão Fiscal.</t>
+          <t>Encaminhamento da Coordenadoria de Instrução Processual à Diretoria de Controle de Pessoal e Previdência (DCP) para pronunciamento conclusivo.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>002957/2018</t>
+          <t>002202/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM.MUN.MACAU                                                                                                                                                                                                                                                  </t>
+          <t>CÂMARA MUNICIPAL DE NATAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>GEORGE MONTENEGRO SOARES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>02/04/2025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29/04/2025</t>
+          <t>02/04/2025</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Execução de multa por omissão administrativa.</t>
+          <t>Irregularidades em edital de concurso público.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Ministério Público de Contas para manifestação sobre possível falha processual referente à intimação inadequada.</t>
+          <t>Encaminhamento dos autos à Diretoria de Controle de Pessoal e Previdência (DCP) para pronunciamento conclusivo.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>003119/2021</t>
+          <t>000358/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREFEITURA MUNICIPAL DE PUREZA/RN                                                                                                                                                                                                                              </t>
+          <t>PREFEITURA MUNICIPAL DE AFONSO BEZERRA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
+          <t>ANTONIO ED SOUZA SANTANA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>09/02/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08/04/2025</t>
+          <t>02/04/2025</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Adequação de despesas com pessoal ao limite.</t>
+          <t>Irregularidades em operações de crédito municipais.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Ministério Público de Contas para manifestação sobre a matéria.</t>
+          <t>Encaminhamento ao Relator para apreciação e decisão, incluindo a aplicação de multa ao responsável e recomendação à Diretoria de Controle de Infraestrutura e Meio Ambiente para acompanhamento das obras financiadas.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>008222/2014</t>
+          <t>005404/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREF.MUN.SANTA MARIA                                                                                                                                                                                                                                           </t>
+          <t>PREFEITURA MUNICIPAL DE LAGOA DE VELHOS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RENATO COSTA DIAS</t>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23/01/2025</t>
+          <t>02/04/2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>03/04/2025</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pedido de reconsideração sobre intempestividade de publicação.</t>
+          <t>Análise das contas do Executivo municipal.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Encaminhamento do processo ao Ministério Público junto ao Tribunal de Contas para manifestação.</t>
+          <t>Encaminhamento à Diretoria de Controle de Contas de Governo e Gestão Fiscal para análise da matéria.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>301296/2022</t>
+          <t>002315/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOLL – SERVIÇOS, OBRAS E LOCAÇÕES LTDA                                                                                                                                                                                                                         </t>
+          <t>PREFEITURA MUNICIPAL DE PUREZA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>23/01/2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30/04/2025</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Representação sobre terceirização ilícita de mão de obra.</t>
+          <t>Omissão de envio de documentos requisitados pelo MPC.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos ao Ministério Público Especial para manifestação.</t>
+          <t>Encaminhamento do processo ao Relator para análise e decisão sobre a aplicação de multa e aprimoramento do rito processual em processos futuros.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>002206/2023</t>
+          <t>005118/2021</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">SIGILOSO                                                                                                                                                                                                                                                       </t>
+          <t>PREFEITURA MUNICIPAL DE AFONSO BEZERRA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>29/01/2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24/04/2025</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Representação sobre contratação por inexigibilidade de licitação.</t>
+          <t>Omissão na prestação de contas de gestão.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Encaminhamento da Diretoria de Instrução Processual à Diretoria de Controle de Infraestrutura e Meio Ambiente.</t>
+          <t>Encaminhamento à consideração do Relator, propondo a rejeição das alegações de defesa, a desaprovação da matéria e a aplicação de multa ao gestor responsável.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>000406/2019</t>
+          <t>600444/2019</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREFEITURA MUNICIPAL DE SÃO FERNANDO                                                                                                                                                                                                                           </t>
+          <t>TRIBUNAL DE CONTAS DO ESTADO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -715,219 +715,219 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08/04/2025</t>
+          <t>06/05/2025</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Irregularidades na gestão fiscal municipal de 2014.</t>
+          <t>Pedido de reconsideração sobre concurso público municipal.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Ministério Público de Contas para manifestação sobre as irregularidades apontadas.</t>
+          <t>Encaminhamento ao Tribunal de Contas do Estado do Rio Grande do Norte com proposta de rejeição do recurso e manutenção integral do acórdão anterior.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>000358/2024</t>
+          <t>200117/2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">xxx                                                                                                                                                                                                                                                            </t>
+          <t>CONSÓRCIO PÚBLICO INTERMUNICIPAL DE SANEAMENTO BÁSICO DA REGIÃO DO MATO GRANDE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ANTONIO ED SOUZA SANTANA</t>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>29/01/2025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>02/04/2025</t>
+          <t>06/05/2025</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Operação de crédito municipal com irregularidades.</t>
+          <t>Inadimplência no envio de dados pelo consórcio.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Encaminhamento para citação do ex-prefeito de Afonso Bezerra/RN para apresentação de defesa sobre as irregularidades apontadas.</t>
+          <t>Encaminhamento dos autos à Diretoria de Controle de Pessoal e Previdência para análise técnica e continuidade do trâmite processual.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>000289/2023</t>
+          <t>006542/2018</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">xxx                                                                                                                                                                                                                                                            </t>
+          <t>TRIBUNAL DE CONTAS DO ESTADO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+          <t>GEORGE MONTENEGRO SOARES</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24/04/2025</t>
+          <t>06/05/2025</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Apuração de irregularidades em contratação emergencial.</t>
+          <t>Sugestão de fonte de recurso para SICONFI.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Encaminhamento da Coordenadoria de Instrução Processual à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para análise técnica.</t>
+          <t>Encaminhamento à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para análise e providências.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>004728/2022</t>
+          <t>200152/2021</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">FRANCINALDO MOREIRA DA SILVA                                                                                                                                                                                                                                   </t>
+          <t>CONSÓRCIO PÚBLICO REGIONAL DE SANEAMENTO BÁSICO DO VALE DO ASSU DO RIO GRANDE DO NORTE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23/01/2025</t>
+          <t>29/01/2025</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>06/05/2025</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Regularidade de contratações temporárias e terceirizações ilícitas.</t>
+          <t>Irregularidades no envio de dados ao TCE.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos ao Ministério Público de Contas para pronunciamento.</t>
+          <t>Encaminhamento à Diretoria de Controle de Pessoal e Previdência para análise e manifestação sobre os fatos.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>303174/2021</t>
+          <t>200032/2022</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREFEITURA MUNICIPAL DE LAGOA D´ANTA                                                                                                                                                                                                                           </t>
+          <t>PREFEITURA MUNICIPAL DE RUY BARBOSA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30/04/2025</t>
+          <t>06/05/2025</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Aplicação de multa por falhas na transição.</t>
+          <t>Atraso no envio de dados ao SIAI.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Ministério Público Especial para manifestação nos autos.</t>
+          <t>Encaminhamento para rejeição das alegações de defesa e aplicação de multa ao gestor responsável, com base no posicionamento técnico da Unidade Instrutiva.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>003382/2020</t>
+          <t>200153/2021</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREFEITURA MUNICIPAL DE TOUROS                                                                                                                                                                                                                                 </t>
+          <t>CONSÓRCIO PÚBLICO INTERMUNICIPAL DE SANEAMENTO BÁSICO DA REGIÃO DO MATO GRANDE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RENATO COSTA DIAS</t>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>03/04/2025</t>
+          <t>29/01/2025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>29/04/2025</t>
+          <t>06/05/2025</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Arquivamento por prescrição intercorrente.</t>
+          <t>Apuração de irregularidades no envio de dados.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Encaminhamento do processo ao Ministério Público de Contas para manifestação.</t>
+          <t>Encaminhamento da Diretoria de Instrução Processual à Diretoria de Controle de Pessoal e Previdência (DCP).</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>000371/2019</t>
+          <t>200060/2022</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREFEITURA MUNICIPAL DE LUCRÉCIA                                                                                                                                                                                                                               </t>
+          <t>PREFEITURA MUNICIPAL DE MONTE ALEGRE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RENATO COSTA DIAS</t>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -937,436 +937,436 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>06/05/2025</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Apuração de irregularidades na gestão fiscal municipal.</t>
+          <t>Atraso no envio de informações ao SIAI.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Encaminhamento do processo ao Ministério Público de Contas para emissão de parecer.</t>
+          <t>Encaminhamento para rejeição das alegações de defesa do Prefeito de Monte Alegre e aplicação de multa, conforme posicionamento técnico da Unidade Instrutiva.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>303175/2021</t>
+          <t>001983/2023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREFEITURA MUNICIPAL DE LAGOA D´ANTA                                                                                                                                                                                                                           </t>
+          <t>PREFEITURA MUNICIPAL DE CARAÚBAS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>23/01/2025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23/04/2025</t>
+          <t>06/05/2025</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Apuração de inadimplência em contas de água.</t>
+          <t>Inspeção em contratos e gestão de dívidas.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Encaminhamento à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para análise e manifestação.</t>
+          <t>Encaminhamento ao Relator do Tribunal de Contas para avaliação e julgamento, com proposta de rejeição das defesas e aplicação de sanções administrativas.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>011811/2002</t>
+          <t>001543/2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREF.MUN.TIMBAÚBA DOS BATISTAS                                                                                                                                                                                                                                 </t>
+          <t>PREFEITURA MUNICIPAL DE FRANCISCO DANTAS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>23/01/2025</t>
+          <t>30/04/2025</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Arquivamento por prescrição intercorrente.</t>
+          <t>Denúncia de irregularidades em licitações municipais.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Ministério Público de Contas para manifestação em sua competência.</t>
+          <t>Encaminhamento da Unidade de Controle Externo à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para realização de instrução preliminar sumária.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>001879/2024</t>
+          <t>002153/2020</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">INSTITUTO DE PREVIDÊNCIA SOCIAL DOS SERVIDORES DO MUNICÍPIO DE NATAL                                                                                                                                                                                           </t>
+          <t>INSTITUTO PREVIDENCIÁRIO DE SÃO PAULO DO POTENGI</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GEORGE MONTENEGRO SOARES</t>
+          <t>RENATO COSTA DIAS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27/03/2025</t>
+          <t>03/04/2025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23/04/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditoria sobre inadimplências previdenciárias em Natal.</t>
+          <t>Apuração de inadimplência no envio ao SIAI-DP.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Ministério Público de Contas para análise e emissão de parecer.</t>
+          <t>Encaminhamento ao Gabinete do Conselheiro Relator para continuidade do processo.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>002202/2023</t>
+          <t>003046/2018</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">CÂMARA MUNICIPAL DE NATAL                                                                                                                                                                                                                                      </t>
+          <t>PREFEITURA MUNICIPAL DE BARCELONA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GEORGE MONTENEGRO SOARES</t>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>02/04/2025</t>
+          <t>29/01/2025</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>02/04/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Irregularidades em edital de concurso público.</t>
+          <t>Omissão na prestação de contas da gestão 2016.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Encaminhamento da Coordenadoria de Instrução Processual à Diretoria de Controle de Pessoal e Previdência para pronunciamento conclusivo.</t>
+          <t>Encaminhamento à consideração do Relator para decisão, com proposta de rejeição das defesas, desaprovação das contas e aplicação de multas aos gestores responsáveis.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>005306/2024</t>
+          <t>000406/2019</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">xxx                                                                                                                                                                                                                                                            </t>
+          <t>PREFEITURA MUNICIPAL DE SÃO FERNANDO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>23/01/2025</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23/04/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Apuração de irregularidades em edital cultural.</t>
+          <t>Apuração de irregularidades na gestão fiscal municipal.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Tribunal de Contas da União devido à utilização de recursos federais.</t>
+          <t>Encaminhamento ao Relator para aplicação de multas ao gestor por atraso na alimentação do sistema SIAI e má gestão fiscal no exercício de 2014.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>008145/2003</t>
+          <t>003119/2021</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREF.MUN.LAGOA D´ANTA                                                                                                                                                                                                                                          </t>
+          <t>PREFEITURA MUNICIPAL DE PUREZA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23/01/2025</t>
+          <t>09/02/2025</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Arquivamento por prescrição intercorrente.</t>
+          <t>Redução de despesas com pessoal e conformidade fiscal.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos ao Ministério Público de Contas para manifestação.</t>
+          <t>Encaminhamento para abertura de novo prazo para o gestor municipal elaborar documentação específica comprovando as medidas implementadas e planejadas, visando atender integralmente às determinações do Tribunal de Contas.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>301005/2025</t>
+          <t>600212/2020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALTBIT INFORMÁTICA COMÉRCIO E SERVIÇOS LTDA                                                                                                                                                                                                                    </t>
+          <t>INSTITUTO DE PREVIDÊNCIA DO MUNICÍPIO DE SÃO MIGUEL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>GEORGE MONTENEGRO SOARES</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>22/04/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Possíveis irregularidades em pregão de locação.</t>
+          <t>Apuração de responsabilidade perante a SPREV.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Encaminhamento da Diretoria de Controle de Contas à Secretaria de Estado da Educação para suspensão cautelar de contrato.</t>
+          <t>Encaminhamento à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>001294/1999</t>
+          <t>019612/2016</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREF.MUN.RIACHUELO                                                                                                                                                                                                                                             </t>
+          <t>TRIBUNAL DE JUSTIÇA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GEORGE MONTENEGRO SOARES</t>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>09/04/2025</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22/04/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Arquivamento por prescrição decenal reconhecida.</t>
+          <t>Auditoria sobre construção da sede do TJRN.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Ministério Público de Contas para análise e emissão de parecer.</t>
+          <t>Encaminhamento à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>300276/2025</t>
+          <t>000147/2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">xxx                                                                                                                                                                                                                                                            </t>
+          <t>PROCURADORIA GERAL DE JUSTIÇA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
+          <t>SEM RELATOR</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>03/04/2025</t>
+          <t>18/03/2025</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23/04/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Suspensão de pregão para aquisição de informática.</t>
+          <t>Reanálise técnica de auditoria em documentação apresentada.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Encaminhamento da Diretoria de Controle de Contas de Gestão à Secretaria Municipal de Planejamento para manifestação e ratificação de medida cautelar.</t>
+          <t>Encaminhamento da Coordenadoria de Instrução Processual à unidade técnica de controle externo competente.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>001795/2024</t>
+          <t>004098/2019</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">TRIBUNAL DE CONTAS DO ESTADO DO RN                                                                                                                                                                                                                             </t>
+          <t>CONTROLADORIA GERAL DO ESTADO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GEORGE MONTENEGRO SOARES</t>
+          <t>RENATO COSTA DIAS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Irregularidades em concurso público de Ceará-Mirim.</t>
+          <t>Análise de Termo de Ajustamento de Gestão.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Encaminhamento da Coordenadoria de Instrução Processual à Diretoria de Controle de Pessoal e Previdência.</t>
+          <t>Encaminhamento do processo à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>005404/2024</t>
+          <t>017557/2016</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREFEITURA MUNICIPAL DE LAGOA DE VELHOS                                                                                                                                                                                                                        </t>
+          <t>GABINETE CIVIL DO GOVERNADOR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>GEORGE MONTENEGRO SOARES</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>02/04/2025</t>
+          <t>06/05/2025</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>03/04/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Análise de contas anuais da gestão municipal.</t>
+          <t>Encaminhamento para análise técnica de unidade competente.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Encaminhamento da Coordenadoria de Instrução Processual à Diretoria de Controle de Contas de Governo e Gestão Fiscal para análise técnica complementar.</t>
+          <t>Encaminhamento à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>005230/2024</t>
+          <t>002431/2023</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREFEITURA MUNICIPAL DE CAMPO GRANDE                                                                                                                                                                                                                           </t>
+          <t>PREFEITURA MUNICIPAL DE GOVERNADOR DIX-SEPT ROSADO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1376,145 +1376,145 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>25/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28/04/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Análise das contas municipais sem defesa apresentada.</t>
+          <t>Auditoria sobre infraestrutura da educação municipal.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos ao Ministério Público de Contas para pronunciamento.</t>
+          <t>Encaminhamento à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>000760/2025</t>
+          <t>007086/2011</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">xxx                                                                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">PREF.MUN.SÃO GONÇALO DO AMARANTE                                                                                                                                                                                                                               </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>GEORGE MONTENEGRO SOARES</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>18/03/2025</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>25/04/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Denúncia sobre irregularidades na SEEC.</t>
+          <t>Análise de despesas do exercício de 2010.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Encaminhamento da Unidade de Controle Externo à Diretoria de Controle de Pessoal e Previdência para instrução preliminar.</t>
+          <t>Encaminhamento à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>000546/2023</t>
+          <t>025218/2016</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">xxx                                                                                                                                                                                                                                                            </t>
+          <t>CÂMARA MUNICIPAL DE SANTANA DO SERIDÓ</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>GEORGE MONTENEGRO SOARES</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>03/02/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>23/04/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Comunicação sobre irregularidade na gestão fiscal.</t>
+          <t>Irregularidades em nomeações durante período vedado.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Encaminhamento à Relatoria para deliberação e posterior arquivamento do processo.</t>
+          <t>Encaminhamento ao Relator para julgamento de mérito, com aplicação de multa ao ex-prefeito e recomendação à Diretoria de Controle de Despesa com Pessoal para monitoramento futuro das despesas com pessoal.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>300688/2025</t>
+          <t>600443/2019</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">xxx                                                                                                                                                                                                                                                            </t>
+          <t>TRIBUNAL DE CONTAS DO ESTADO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>08/04/2025</t>
+          <t>03/02/2025</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>29/04/2025</t>
+          <t>09/04/2025</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Apuração de irregularidade em licitação municipal.</t>
+          <t>Análise de concurso e despesas com pessoal.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Encaminhamento da Diretoria de Instrução Processual à Diretoria de Controle de Contas para análise preliminar e providências.</t>
+          <t>Encaminhamento dos autos à Diretoria de Controle de Pessoal e Previdência para manifestação sobre os quesitos propostos, com sugestão de remessa posterior à Diretoria de Controle de Contas de Governo e Gestão Fiscal.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>301048/2025</t>
+          <t>008145/2003</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">xxx                                                                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">PREF.MUN.LAGOA D´ANTA                                                                                                                                                                                                                                          </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1524,96 +1524,2049 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>29/04/2025</t>
+          <t>23/01/2025</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>29/04/2025</t>
+          <t>09/04/2025</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Denúncia sobre transparência na gestão municipal.</t>
+          <t>Arquivamento por prescrição intercorrente.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Encaminhamento à Prefeitura Municipal de Senador Eloi de Souza e arquivamento do processo, com acompanhamento previsto em ação do Plano de Fiscalização Anual.</t>
+          <t>Encaminhamento para arquivamento do processo devido à prescrição intercorrente identificada.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>000705/2025</t>
+          <t>004728/2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">xxx                                                                                                                                                                                                                                                            </t>
+          <t>PREFEITURA MUNICIPAL DE PEDRO AVELINO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RENATO COSTA DIAS</t>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>23/01/2025</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>29/04/2025</t>
+          <t>09/04/2025</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Denúncia sobre transparência nas contas públicas.</t>
+          <t>Irregularidades em contratações temporárias e terceirização ilícita.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Encaminhamento à Diretoria de Controle de Contas de Gestão para análise preliminar.</t>
+          <t>Encaminhamento à Conselheira Relatora para decisão sobre rejeição das defesas apresentadas, aplicação de multas ao gestor responsável e assinatura de prazo ao Município para sanar as irregularidades constatadas.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>011811/2002</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREF.MUN.TIMBAÚBA DOS BATISTAS                                                                                                                                                                                                                                 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Arquivamento por prescrição intercorrente.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Encaminhamento para arquivamento do processo devido à prescrição intercorrente, constatada pela paralisação por mais de três anos sem interrupções válidas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>008222/2014</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SANTA MARIA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Pedido de reconsideração sobre penalidade por atraso.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Encaminhamento à consideração superior para conhecimento do recurso e, no mérito, negativa de provimento, com manutenção integral da decisão anterior.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>000371/2019</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE LUCRÉCIA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Aplicação de multa por envio de dados incorretos.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Encaminhamento para aplicação de multa ao responsável pelo envio incorreto de dados fiscais no Relatório de Gestão Fiscal, com desconsideração das demais imputações não analisadas tecnicamente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>302014/2021</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE GOIANINHA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Denúncia sobre transparência e regularidade administrativa.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Encaminhamento para arquivamento do processo por ausência de materialidade e relevância dos fatos denunciados.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>003284/2022</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NATAL</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Fraude documental em licitação da Prefeitura.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Encaminhamento do processo ao Ministério Público Estadual para apuração dos fatos e eventual adoção de providências criminais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>001380/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE OURO BRANCO</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Irregularidade em dispensa de licitação municipal.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Encaminhamento à consideração do Relator para rejeição das alegações de defesa e aplicação de multa ao prefeito municipal, com desaprovação da matéria conforme análise técnica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>004658/2019</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SÃO GONÇALO DO AMARANTE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Arquivamento de dispensa emergencial por regularidade.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Encaminhamento para arquivamento do processo pela Unidade Técnica de Controle Externo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>004014/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE GUAMARÉ</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Descumprimento da ordem cronológica de pagamentos.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Encaminhamento ao Ministério Público Estadual para apuração de possível ilícito penal e aplicação de multa ao ex-prefeito.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>004429/2020</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE JOÃO CÂMARA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Atraso no envio da prestação de contas.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos ao Relator para análise e decisão final, com proposta de aplicação de multa e rejeição das alegações de defesa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>012267/2017</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE MACAÍBA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Irregularidades em contratos e possíveis danos ao erário.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Encaminhamento para citação do Prefeito de Macaíba/RN e das empresas envolvidas com vistas à apresentação de defesa sobre possíveis irregularidades contratuais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>003105/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE SERRA NEGRA DO NORTE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Apuração de omissão na prestação de contas.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos ao relator para rejeição das alegações de defesa, desaprovação da matéria, aplicação de multa ao gestor e suspensão da certidão de adimplência até a regularização.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>301435/2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SECRETARIA MUNICIPAL DE EDUCAÇÃO DE MOSSORÓ</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Descumprimento de ordem cronológica de pagamentos.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Encaminhamento da Unidade de Controle Externo à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para instrução preliminar sumária.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>001553/2025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE MOSSORÓ</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Irregularidades no Portal da Transparência Municipal.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Encaminhamento da Unidade de Controle Externo à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para realização da instrução preliminar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>101358/2021</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARIA JOSE MARTINS                                                                                                                                                                                                                                             </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Denegação de aposentadoria e monitoramento de decisão.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos à Diretoria de Registro de Atos de Pessoal para providências relacionadas ao monitoramento da decisão.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>005851/2010</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MINISTÉRIO PÚBLICO DO ESTADO DO RIO GRANDE DO NORT                                                                                                                                                                                                             </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Arquivamento por prescrição intercorrente.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Encaminhamento para arquivamento do processo devido à ocorrência de prescrição intercorrente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>002249/2013</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM.MUN.GUAMARÉ                                                                                                                                                                                                                                                </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Análise de recursos sobre irregularidades administrativas.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos pedidos de reconsideração ao Tribunal de Contas para manter o Acórdão original, exceto em relação à empresa M.V. Pedroza Jucá, onde se reconhece a nulidade da citação e a prescrição da pretensão punitiva.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>001280/2022</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SECRETARIA MUNICIPAL DE SAÚDE DE NATAL</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Gestão inadequada na política de controle de zoonoses.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Encaminhamento à Diretoria de Avaliação de Políticas Públicas (DPP) para avaliação da política municipal de controle de zoonoses e aplicação de multa ao gestor responsável.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>001503/2025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE FLORÂNIA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Irregularidade na contratação de serviços de engenharia.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Encaminhamento à Diretoria de Controle de Infraestrutura e Meio Ambiente para avaliação de materialidade, risco e relevância dos fatos e indicação de tratamento no Plano de Fiscalização Anual ou posterior análise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>001505/2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE FLORÂNIA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Irregularidade em contratação de cooperativa de saúde.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Encaminhamento à Diretoria de Controle de Pessoal e Previdência para pronunciamento quanto à materialidade, risco e relevância dos fatos apontados.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>005267/2018</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE GUAMARÉ</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ANTONIO ED SOUZA SANTANA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Arquivamento de denúncia sobre pregão presencial.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Encaminhamento para arquivamento do processo por ausência de indícios de irregularidades no procedimento licitatório.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>001504/2025</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE FLORÂNIA</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Apuração de irregularidade em nomeação de procurador.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Encaminhamento à Diretoria de Controle de Pessoal e Previdência para avaliação de materialidade, risco e relevância dos fatos apontados.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>001507/2025</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE FLORÂNIA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Irregularidade na contratação de transporte escolar.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Encaminhamento da Diretoria de Instrução Processual e Controle de Decisões à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para pronunciamento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>001506/2025</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE FLORÂNIA</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Apuração de irregularidades em contratação municipal.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Encaminhamento à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para análise de materialidade, risco, relevância e viabilidade de fiscalização.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>000209/2023</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PROCURADORIA GERAL DE JUSTIÇA                                                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Pagamento antecipado em contratações públicas irregulares.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos ao Relator para apreciação das conclusões e propostas de aplicação de sanção ao gestor responsável.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>301005/2025</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SECRETARIA DE ESTADO DA EDUCAÇÃO, DA CULTURA, DO ESPORTE E DO LAZER</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Possíveis irregularidades em pregão de locação.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Encaminhamento da Unidade de Controle Externo à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para instrução preliminar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>001294/1999</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREF.MUN.RIACHUELO                                                                                                                                                                                                                                             </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Arquivamento por prescrição de irregularidades formais.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Encaminhamento para arquivamento do processo, com envio de cópia dos autos ao Ministério Público Estadual para providências cabíveis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>300276/2025</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SECRETARIA MUNICIPAL DE ADMINISTRAÇÃO DE NATAL</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>03/04/2025</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23/04/2025</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Suspensão de pregão eletrônico por denúncia.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública (DCD) para pronunciamento conclusivo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>000546/2023</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE JARDIM DE PIRANHAS</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23/04/2025</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Comunicação de irregularidade sobre gestão fiscal.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos à Diretoria de Controle de Contas de Governo e Gestão Fiscal para pronunciamento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>303175/2021</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE LAGOA D´ANTA</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23/04/2025</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Responsabilização administrativa por inadimplência em gestão.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos à Diretoria de Controle de Contas de Gestão para apuração do dano ao erário e análise da conduta da ex-prefeita, com citação da mesma para apresentação de defesa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>005306/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE MACAU</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>23/04/2025</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Denúncia sobre irregularidades em edital cultural.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Encaminhamento da Unidade de Controle Externo à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para instrução preliminar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>001879/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>INSTITUTO DE PREVIDÊNCIA SOCIAL DOS SERVIDORES DO MUNICÍPIO DE NATAL</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>27/03/2025</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23/04/2025</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Auditoria sobre inadimplência previdenciária em Natal.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Encaminhamento à apreciação do Relator para decisão sobre aplicação de sanções aos responsáveis e fixação de prazo para regularização das pendências previdenciárias.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>003103/2023</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE RAFAEL FERNANDES</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>27/02/2025</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Omissão na prestação de contas anuais.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Encaminhamento ao Relator com proposta de rejeição das alegações de defesa, desaprovação da matéria, aplicação de multa ao gestor e suspensão da Certidão de Adimplência enquanto persistir a irregularidade.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>001317/2017</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TRIBUNAL DE CONTAS DO ESTADO</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ANTONIO ED SOUZA SANTANA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Monitoramento de auditoria do sistema prisional.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Encaminhamento do processo à Diretoria de Avaliação de Políticas Públicas para análise do Plano de Ação e inclusão em ação fiscalizatória no Plano de Fiscalização Anual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>002206/2023</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SECRETARIA DE ESTADO DA SAÚDE PUBLICA</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Apuração de irregularidades em contratação sem licitação.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Encaminhamento da Coordenadoria de Instrução Processual à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para pronunciamento conclusivo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>000289/2023</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE OURO BRANCO</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Apuração de irregularidades em transporte escolar.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Encaminhamento à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para análise e pronunciamento técnico.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>000760/2025</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SECRETARIA DE ESTADO DA EDUCAÇÃO, DA CULTURA, DO ESPORTE E DO LAZER</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Denúncia sobre transparência em contratações temporárias.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Encaminhamento à Diretoria de Controle de Pessoal e Previdência para realização de instrução preliminar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>001039/2025</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">COMPANHIA POTIGUAR DE GÁS - POTIGÁS                                                                                                                                                                                                                            </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>COMPANHIA POTIGUAR DE GÁS</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>SEM RELATOR</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>23/04/2025</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>25/04/2025</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Inclusão do GNV em relatório de licitação.</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Encaminhamento de ofício da Companhia Potiguar de Gás à Diretoria de Expediente para apensamento e aguardo de resposta à notificação.</t>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Inclusão do GNV em relatório de transporte.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Encaminhamento do documento ao gabinete do Conselheiro Relator para apensamento aos autos do processo relacionado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>006450/2017</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE PORTO DO MANGUE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>10/01/2025</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Fixação irregular de subsídios de agentes políticos.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos ao Relator para julgamento de irregularidade da matéria e aplicação das penalidades propostas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>001981/2023</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE UMARIZAL</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Irregularidades em contratos e gestão de dívidas.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Encaminhamento ao Relator para apreciação e decisão quanto à desaprovação da matéria, imputação de débito solidário aos gestores e aplicação das penalidades propostas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>005230/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE CAMPO GRANDE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Análise de contas do prefeito sem defesa.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Encaminhamento ao gabinete do Conselheiro Relator para decretação de revelia do responsável e posterior envio ao Ministério Público de Contas para pronunciamento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>011897/2011</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM.MUN.SÃO GONÇALO DO AMARANTE                                                                                                                                                                                                                                </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Arquivamento por prescrição decenal.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos ao Conselheiro Relator para reconhecimento da prescrição e arquivamento do processo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>003382/2020</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE TOUROS</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>03/04/2025</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>29/04/2025</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Arquivamento por prescrição intercorrente.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Encaminhamento para arquivamento do processo devido à ocorrência de prescrição intercorrente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>301048/2025</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SEN.ELOI DE SOUZA</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>29/04/2025</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>29/04/2025</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Denúncia sobre descumprimento do dever de transparência.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Encaminhamento da Unidade de Controle Externo à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para instrução preliminar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>000705/2025</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SERRINHA</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>29/04/2025</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Denúncia sobre transparência das contas públicas.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Encaminhamento da Diretoria de Instrução Processual à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública (DCD) para instrução preliminar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>002957/2018</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE MACAU</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>29/04/2025</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Execução de multa por omissão na gestão.</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Encaminhamento à adoção de medidas para fixação do limite máximo da multa e execução forçada do débito acumulado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>300688/2025</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SÃO MIGUEL DE GOSTOSO</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>08/04/2025</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>29/04/2025</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Denúncia sobre irregularidade em licitação municipal.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Encaminhamento da Unidade de Controle Externo à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para a instrução preliminar sumária.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>005179/2019</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE BARAÚNA</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Pedido de reconsideração sobre omissão na prestação de contas.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Encaminhamento do recurso de Pedido de Reconsideração para análise superior, com proposta de manutenção integral da decisão recorrida.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>005114/2021</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE LAGOA D´ANTA</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Omissão na prestação de contas de gestão.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Encaminhamento ao Relator para rejeição das alegações de defesa, desaprovação da matéria, aplicação de multa ao gestor e suspensão da Certidão de Adimplência.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>002322/2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NATAL</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Acompanhamento de licitação de transporte coletivo.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos à Diretoria de Controle de Infraestrutura e Meio Ambiente para manifestação, conforme determinação do Relator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>017609/2016</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE PEDRO AVELINO</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>09/02/2025</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Irregularidades em remunerações na Câmara Municipal.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos ao Ministério Público de Contas para pronunciamento conclusivo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>301296/2022</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE MONTE ALEGRE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>30/04/2025</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Contratação irregular de cooperativa para serviços educacionais.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Encaminhamento ao Relator para análise das defesas, aplicação de multa ao ex-gestor e fixação de prazo ao Município para regularização das irregularidades constatadas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>303174/2021</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE LAGOA D´ANTA</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>30/04/2025</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Descumprimento de normas na transição administrativa municipal.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos ao Relator para decisão, com proposta de aplicação de multa à ex-prefeita e suspensão da certidão de adimplência.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>005354/2024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE JAPI</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ANTONIO ED SOUZA SANTANA</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Apensamento de documento sobre contas executivas municipais.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Apensamento de documento ao processo para análise das contas do Chefe do Poder Executivo da Prefeitura Municipal de Japi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>000739/2023</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>GOVERNO DO ESTADO DO RN</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Acompanhamento do uso do SIGEF como SIAFIC.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Apensamento de documento ao processo em acompanhamento no Tribunal de Contas do Estado do Rio Grande do Norte.</t>
         </is>
       </c>
     </row>

--- a/scripts/saidas/sisdgf/processos_cip.xlsx
+++ b/scripts/saidas/sisdgf/processos_cip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,12 +498,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Irregularidades em concurso público de Ceará-Mirim.</t>
+          <t>Informação Instrutiva - Irregularidades em concurso público municipal</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Encaminhamento da Coordenadoria de Instrução Processual à Diretoria de Controle de Pessoal e Previdência (DCP) para pronunciamento conclusivo.</t>
+          <t>Ante o exposto, esta Coordenadoria de Instrução Processual remete os autos à DIRETORIA DE CONTROLE DE PESSOAL E PREVIDÊNCIA – DCP, para pronunciamento conclusivo.</t>
         </is>
       </c>
     </row>
@@ -535,12 +535,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Irregularidades em edital de concurso público.</t>
+          <t>Informação Instrutiva - Irregularidades em edital de concurso público</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos à Diretoria de Controle de Pessoal e Previdência (DCP) para pronunciamento conclusivo.</t>
+          <t>Ante o exposto, esta Coordenadoria de Instrução Processual remete os autos à DIRETORIA DE CONTROLE DE PESSOAL E PREVIDÊNCIA – DCP, para pronunciamento conclusivo.</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Irregularidades em operações de crédito municipais.</t>
+          <t>Irregularidades apontadas : (i) Ausência de estimativas de impacto orçamentário-financeiro e compatibilidade com PPA, LDO e LOA, conforme exigem os arts. 16 e 17 da LRF. (ii) Aprovação das leis sem pareceres técnicos das comissões competentes, violando o art. 113 do ADCT e os arts. 35 e 101 do Regimento Interno da Câmara. (iii) Contratação da operação de crédito derivada da Lei nº 759/2023 antes do período vedado nos últimos 120 dias do mandato. (iv) Ausência de comprovação da operação referente à Lei nº 768/2024.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Relator para apreciação e decisão, incluindo a aplicação de multa ao responsável e recomendação à Diretoria de Controle de Infraestrutura e Meio Ambiente para acompanhamento das obras financiadas.</t>
+          <t>Conclusão: (i) Rejeição das alegações de defesa. (ii) Desaprovação da matéria, com aplicação de multa ao então Prefeito João Batista da Cunha Neto no valor de R$ 20.585,16, correspondente à gradação máxima permitida. (iii) Proposição de recomendação à Diretoria de Infraestrutura e Meio Ambiente para inclusão do objeto da operação de crédito na Meta 1 do Relatório de Acompanhamento 2025–2026, a fim de verificar a execução físico-financeira das obras financiadas.</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Análise das contas do Executivo municipal.</t>
+          <t>Informação Instrutiva - Análise técnica sobre contas municipais</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Encaminhamento à Diretoria de Controle de Contas de Governo e Gestão Fiscal para análise da matéria.</t>
+          <t>Ante o exposto, esta Coordenadoria de Instrução Processual remete os autos à DIRETORIA DE CONTROLE DE CONTAS DE GOVERNO E GESTÃO FISCAL – DCC, para análise da matéria.</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Omissão de envio de documentos requisitados pelo MPC.</t>
+          <t>1. Irregularidade apurada: omissão injustificada no fornecimento de documentos solicitados pelo órgão ministerial, com indícios de descumprimento dos deveres constitucionais de colaboração e transparência administrativa.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Encaminhamento do processo ao Relator para análise e decisão sobre a aplicação de multa e aprimoramento do rito processual em processos futuros.</t>
+          <t>4. Conclusão: (i) Rejeição das alegações de defesa apresentadas pelo gestor; (ii) Desaprovação da matéria, nos termos do art. 75, II, da LCE nº 464/2012; (iii) Aplicação de multa em sua gradação máxima ao Sr. João da Fonseca Moura Neto, no valor de R$ 20.585,16, com fundamento no art. 107, II, “e”, §1º, da LCE nº 464/2012, art. 323, II, “b” do RITCE/RN e Portaria nº 005/2025-GP/TCE-RN; (iv) Recomendação de observância rigorosa do rito de admissibilidade de representações, conforme disciplinado no Provimento nº 002/2020 – CORREG/TCE, em especial quanto à necessidade de instrução preliminar sumária.</t>
         </is>
       </c>
     </row>
@@ -683,34 +683,34 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Omissão na prestação de contas de gestão.</t>
+          <t xml:space="preserve">PRE S TAÇÃO DE CONTAS. PREFEITURA MUNICIPAL DE AFONSO BEZERRA/RN. EX ERCÍCIO DE 2020. OMISSÃO NO DEV ER DE PRESTAR CONTAS ANUAIS DE GES TÃO. RE SPONSABILIDADE DO ATUAL GES TOR PELO DESCUMPRIMENTO DA OBRIGAÇÃO CONSTITUCIONAL. ALEGADA DIFICULDADE NA OBTENÇÃO DE DOCUMENTOS JUNTO À GE S TÃO ANTERIOR. NÃO COMPROVAÇÃO DE JUS TO IMPEDIMENTO. APLICAÇ ÃO DE MULTA EM GRADAÇÃO MÁXIMA.  </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Encaminhamento à consideração do Relator, propondo a rejeição das alegações de defesa, a desaprovação da matéria e a aplicação de multa ao gestor responsável.</t>
+          <t>3. Conclusão: (i) rejeição das alegações de defesa apresentadas; (ii) desaprovação da matéria, com fundamento no art. 75, II, da LCE nº 464/201 2; (iii) aplicação de multa no valor de R$ 20.585,16 ao Sr. João Batista da Cunha Neto, nos termos do art. 107, II, §4º, da LCE nº 464/2012 c/c art. 21, I, “a”, §1º, da Resolução nº 012/2016-TCE/RN e da Portaria nº 005/2025 -GP/TCE-RN.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>600444/2019</t>
+          <t>200153/2021</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRIBUNAL DE CONTAS DO ESTADO</t>
+          <t>CONSÓRCIO PÚBLICO INTERMUNICIPAL DE SANEAMENTO BÁSICO DA REGIÃO DO MATO GRANDE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23/01/2025</t>
+          <t>29/01/2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -720,12 +720,15 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pedido de reconsideração sobre concurso público municipal.</t>
+          <t>Informação Instrutiva - Apuração de responsabilidade por irregularidades.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Tribunal de Contas do Estado do Rio Grande do Norte com proposta de rejeição do recurso e manutenção integral do acórdão anterior.</t>
+          <t>Sendo assim, encaminhem-se os autos à Diretoria de Controle de Pessoal e  
+Previdência – DCP para os devidos fins, com maior brevidade possível, dada a relevância da  
+questão apresentada.  
+Natal/RN, 6 de maio de 2025.</t>
         </is>
       </c>
     </row>
@@ -757,12 +760,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Inadimplência no envio de dados pelo consórcio.</t>
+          <t>Informação Instrutiva - Inadimplência no envio de documentação ao TCE.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos à Diretoria de Controle de Pessoal e Previdência para análise técnica e continuidade do trâmite processual.</t>
+          <t xml:space="preserve">Sendo assim, encaminhem-se os autos à Diretoria de Controle de Pessoal e  
+Previdência – DCP para os devidos fins, com maior brevidade possível, dada a relevância da  
+questão apresentada.  
+Natal/RN, 6 de maio de 2025.  
+[assinado eletronicamente]  
+José Anderson Souza de Salles  
+Coordenador de Instrução Processual  
+Auditor de Controle Externo  </t>
         </is>
       </c>
     </row>
@@ -794,12 +804,13 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sugestão de fonte de recurso para SICONFI.</t>
+          <t>Informação Instrutiva - Sugestão de fonte de recurso orçamentário</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Encaminhamento à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para análise e providências.</t>
+          <t>Pelo breve exposto, compreende-se que os presentes autos devem ser encaminhados à unidade técnica de controle externo competente, considerando a possibilidade da perda superveniente do objeto, haja vistas as modificações fáticas e de direito ocorridas.  
+Sendo assim, encaminhem-se os autos à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública – DCP para os devidos fins, com maior brevidade possível, dada a relevância da questão apresentada.</t>
         </is>
       </c>
     </row>
@@ -831,34 +842,35 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Irregularidades no envio de dados ao TCE.</t>
+          <t>Informação Instrutiva - Irregularidade no envio de dados ao TCE</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Encaminhamento à Diretoria de Controle de Pessoal e Previdência para análise e manifestação sobre os fatos.</t>
+          <t>A conclusão é o último parágrafo do texto:
+"Sendo assim, encaminhem-se os autos à Diretoria de Controle de Pessoal e Previdência – DCP para os devidos fins, com maior brevidade possível, dada a relevância da questão apresentada."</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>200032/2022</t>
+          <t>200152/2021</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE RUY BARBOSA</t>
+          <t>CONSÓRCIO PÚBLICO REGIONAL DE SANEAMENTO BÁSICO DO VALE DO ASSU DO RIO GRANDE DO NORTE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>29/01/2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -868,29 +880,29 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Atraso no envio de dados ao SIAI.</t>
+          <t>Informação Instrutiva - Irregularidade no envio de dados ao TCE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Encaminhamento para rejeição das alegações de defesa e aplicação de multa ao gestor responsável, com base no posicionamento técnico da Unidade Instrutiva.</t>
+          <t>Encaminhem-se os autos à Diretoria de Controle de Pessoal e Previdência – DCP para os devidos fins, com maior brevidade possível, dada a relevância da questão apresentada.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>200153/2021</t>
+          <t>200060/2022</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CONSÓRCIO PÚBLICO INTERMUNICIPAL DE SANEAMENTO BÁSICO DA REGIÃO DO MATO GRANDE</t>
+          <t>PREFEITURA MUNICIPAL DE MONTE ALEGRE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -905,34 +917,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Apuração de irregularidades no envio de dados.</t>
+          <t xml:space="preserve">Irregularidades identificadas : atraso de três dias no envio das informações da folha de pagamento e quadro de pessoal referentes a agosto de 2021 , por meio do SIAI-DP Novo.  </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Encaminhamento da Diretoria de Instrução Processual à Diretoria de Controle de Pessoal e Previdência (DCP).</t>
+          <t xml:space="preserve">Conclusão pela rejeição da defesa, com proposta de aplicação de multa no valor de R$ 1.100,00, nos termos do art. 107, II, da LCE nº 464/2012 c/c art. 6º, I, “a”, da Resolução nº 022/2020-TCE.  </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>200060/2022</t>
+          <t>200032/2022</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE MONTE ALEGRE</t>
+          <t>PREFEITURA MUNICIPAL DE RUY BARBOSA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -942,12 +954,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Atraso no envio de informações ao SIAI.</t>
+          <t>INADIMPLÊNCIA NA REMESSA DE DADOS AO SIAI-DP NOVO. ENVIO INTEMPESTIVO DAS INFORMAÇÕES DE FOLHA DE PAGAMENTO E QUADRO DE PESSOAL. DEFESA FUNDADA EM HISTÓRICO DE ADIMPLÊNCIA E AUSÊNCIA DE DANO AO ERÁRIO. ALEGADA DESPROPORCIONALIDADE DA MULTA. INEXISTÊNCIA DE JUSTIFICATIVA PLAUSÍVEL PARA O ATRASO. OBRIGAÇÃO OBJETIVA DO GESTOR. APLICAÇÃO DE MULTA.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Encaminhamento para rejeição das alegações de defesa do Prefeito de Monte Alegre e aplicação de multa, conforme posicionamento técnico da Unidade Instrutiva.</t>
+          <t>4. Conclusão pela rejeição da defesa, manutenção do juízo de irregularidade e aplicação de multa no valor de R$ 2.200,00, com fundamento no art. 107, II, da LCE nº 464/2012 c/c art. 6º, I, “a”, da Resolução nº 022/2020-TCE.</t>
         </is>
       </c>
     </row>
@@ -979,71 +991,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Inspeção em contratos e gestão de dívidas.</t>
+          <t xml:space="preserve">Irregularidades apuradas : (i) formalização de 37 operações de crédito totalizando R$ 2.072.523,00, das quais apenas uma vinculada a servidor identificado nas folhas de pagamento; (ii) ausência de retenção em folha e inexistência de registro contábil das obrigações; (iii) celebração de confissão de dívida no valor de R$ 150.935,50, sem autorização legislativa, infringindo o art. 32 da LRF; (iv) omissão nos demonstrativos contábeis de 2014, configurando falsidade patrimonial, nos termos dos arts. 85 e 105 da Lei nº 4.320/64; (v) aumento do débito confessado em virtude de juros, multas e IOF; (vi) prejuízo direto ao erário estimado em R$ 327.074,00. </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Relator do Tribunal de Contas para avaliação e julgamento, com proposta de rejeição das defesas e aplicação de sanções administrativas.</t>
+          <t>Conclusão : (i) rejeição das alegações de defesa; (ii) julgamento pela irregularidade da matéria; (iii) imputação de débito ao ex-prefeito Ademar Ferreira da Silva no valor de R$ 327.074,00, nos termos do art. 75, §4º, I, da LCE nº 464/2012; (iv) aplicação de multa ressarcitória de até 100% do valor do débito (art. 107, I, da LCE nº 464/2012); (v) aplicação de multa sancionatória no valor máximo de R$ 20.585,16, com fundamento no art. 107, II, “b” e “c”, §1º, da LCE nº 464/2012, art. 323, II, “b”, do RITCE/RN, e Portaria nº 005/2025-GP/TCE-RN.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>001543/2025</t>
+          <t>600444/2019</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE FRANCISCO DANTAS</t>
+          <t>TRIBUNAL DE CONTAS DO ESTADO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>30/04/2025</t>
+          <t>23/01/2025</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>07/05/2025</t>
+          <t>06/05/2025</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Denúncia de irregularidades em licitações municipais.</t>
+          <t>Informação Conclusiva - Regularidade com ressalvas de concurso público.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Encaminhamento da Unidade de Controle Externo à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para realização de instrução preliminar sumária.</t>
+          <t>Encaminhamento da Diretoria de Instrução Processual ao órgão superior competente, propondo o conhecimento e o não provimento do recurso interposto, com a manutenção integral do acórdão recorrido.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>002153/2020</t>
+          <t>003046/2018</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INSTITUTO PREVIDENCIÁRIO DE SÃO PAULO DO POTENGI</t>
+          <t>PREFEITURA MUNICIPAL DE BARCELONA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RENATO COSTA DIAS</t>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>03/04/2025</t>
+          <t>29/01/2025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1053,34 +1065,34 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Apuração de inadimplência no envio ao SIAI-DP.</t>
+          <t>1. Irregularidades identificadas: as contas foram entregues apenas em 2021, com mais de quatro anos de atraso, e ainda de forma incompleta, com ausência de documentos essenciais.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Gabinete do Conselheiro Relator para continuidade do processo.</t>
+          <t>4. Conclusão: (i) Rejeição das defesas apresentadas; (ii) Reconhecimento da irregularidade na prestação de contas; (iii) Aplicação de multa aos responsáveis.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>003046/2018</t>
+          <t>002153/2020</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE BARCELONA</t>
+          <t>INSTITUTO PREVIDENCIÁRIO DE SÃO PAULO DO POTENGI</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>RENATO COSTA DIAS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>03/04/2025</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1090,71 +1102,74 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Omissão na prestação de contas da gestão 2016.</t>
+          <t>Informação Instrutiva - Inadimplência no envio ao SIAI-DP</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Encaminhamento à consideração do Relator para decisão, com proposta de rejeição das defesas, desaprovação das contas e aplicação de multas aos gestores responsáveis.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos ao GABINETE DO CONSELHEIRO RELATOR para continuidade do processo.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>000406/2019</t>
+          <t>001543/2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE SÃO FERNANDO</t>
+          <t>PREFEITURA MUNICIPAL DE FRANCISCO DANTAS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23/01/2025</t>
+          <t>30/04/2025</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>08/04/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Apuração de irregularidades na gestão fiscal municipal.</t>
+          <t>Informação Instrutiva - Irregularidades em licitações de prefeitura.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Relator para aplicação de multas ao gestor por atraso na alimentação do sistema SIAI e má gestão fiscal no exercício de 2014.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à  
+DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA 
+DESPESA PÚBLICA - DCD para realização da instrução preliminar sumária dos autos, 
+conforme determinado pelo Relator.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>003119/2021</t>
+          <t>000406/2019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE PUREZA</t>
+          <t>PREFEITURA MUNICIPAL DE SÃO FERNANDO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>09/02/2025</t>
+          <t>23/01/2025</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1164,71 +1179,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Redução de despesas com pessoal e conformidade fiscal.</t>
+          <t>Irregularidades apontadas: (i) Superestimação de receita pública e ausência de medidas corretivas formais para adequar a execução orçamentária à frustração de arrecadação, resultando em execução inferior a 52,4% do orçamento previsto. (ii) Omissão no envio de informações obrigatórias ao Sistema Integrado de Auditoria Informatizada – SIAI, com atraso na remessa dos Relatórios Resumidos de Execução Orçamentária (RREO) e do Relatório de Gestão Fiscal (RGF), além de ausência de atualização dos anexos respectivos no sistema.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Encaminhamento para abertura de novo prazo para o gestor municipal elaborar documentação específica comprovando as medidas implementadas e planejadas, visando atender integralmente às determinações do Tribunal de Contas.</t>
+          <t>Encaminhamento: Sugere-se o acolhimento parcial das razões de defesa, com o afastamento da irregularidade relacionada à despesa com pessoal, mas a manutenção das demais falhas, nos termos do entendimento técnico e ministerial, com a aplicação das penalidades correspondentes.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>600212/2020</t>
+          <t>003119/2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INSTITUTO DE PREVIDÊNCIA DO MUNICÍPIO DE SÃO MIGUEL</t>
+          <t>PREFEITURA MUNICIPAL DE PUREZA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GEORGE MONTENEGRO SOARES</t>
+          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>09/02/2025</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Apuração de responsabilidade perante a SPREV.</t>
+          <t>Informação Instrutiva - Redução de gastos com pessoal ajustada</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Encaminhamento à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
+          <t>Diante do exposto, considerando as provas documentais disponíveis, conclui-se que o gestor municipal atendeu parcialmente às exigências estabelecidas pelo Tribunal, sendo possível a extinção da medida cautelar anteriormente imposta.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>019612/2016</t>
+          <t>017557/2016</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRIBUNAL DE JUSTIÇA</t>
+          <t>GABINETE CIVIL DO GOVERNADOR</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>GEORGE MONTENEGRO SOARES</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>06/05/2025</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1238,12 +1253,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditoria sobre construção da sede do TJRN.</t>
+          <t>Informação Instrutiva - Análise técnica e documentação complementar.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Encaminhamento à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
+          <t>Encaminhamento à unidade técnica de controle externo competente para análise minuciosa e específica dos autos.</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1290,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Reanálise técnica de auditoria em documentação apresentada.</t>
+          <t>Informação Instrutiva - Encaminhamento para análise técnica adicional</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1287,22 +1302,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>004098/2019</t>
+          <t>002431/2023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CONTROLADORIA GERAL DO ESTADO</t>
+          <t>PREFEITURA MUNICIPAL DE GOVERNADOR DIX-SEPT ROSADO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RENATO COSTA DIAS</t>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1312,34 +1327,34 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Análise de Termo de Ajustamento de Gestão.</t>
+          <t>Informação Instrutiva - Auditoria sobre infraestrutura educacional</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Encaminhamento do processo à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
+          <t>Encaminhamento à unidade técnica de controle externo competente para análise minuciosa.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>017557/2016</t>
+          <t>004098/2019</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GABINETE CIVIL DO GOVERNADOR</t>
+          <t>CONTROLADORIA GERAL DO ESTADO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GEORGE MONTENEGRO SOARES</t>
+          <t>RENATO COSTA DIAS</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>06/05/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1349,34 +1364,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Encaminhamento para análise técnica de unidade competente.</t>
+          <t>Informação Instrutiva - Análise técnica de documentação complementar.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Encaminhamento à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
+          <t>Encaminhamento do processo à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>002431/2023</t>
+          <t>007086/2011</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE GOVERNADOR DIX-SEPT ROSADO</t>
+          <t xml:space="preserve">PREF.MUN.SÃO GONÇALO DO AMARANTE                                                                                                                                                                                                                               </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>GEORGE MONTENEGRO SOARES</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>14/04/2025</t>
+          <t>18/03/2025</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1386,7 +1401,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditoria sobre infraestrutura da educação municipal.</t>
+          <t>Informação Instrutiva - Documentação comprobatória de despesas 2010</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1398,12 +1413,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>007086/2011</t>
+          <t>025218/2016</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREF.MUN.SÃO GONÇALO DO AMARANTE                                                                                                                                                                                                                               </t>
+          <t>CÂMARA MUNICIPAL DE SANTANA DO SERIDÓ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1413,7 +1428,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18/03/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1423,24 +1438,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Análise de despesas do exercício de 2010.</t>
+          <t>1. A análise técnica concluiu que: (i) o Município atingiu 60,08% da Receita Corrente Líquida com despesa de pessoal no 1º semestre de 2016, ultrapassando o limite de 54% estabelecido pela Lei de Responsabilidade Fiscal (LRF); (ii) ao menos 16 servidores foram nomeados entre agosto e dezembro de 2016, violando o art. 21, parágrafo único, e o art. 22 da LRF; (iii) os atos administrativos também colidiram com as vedações da Lei nº 9.504/1997 (Lei Eleitoral) e podem configurar infração penal tipificada no art. 359-G do Código Penal.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Encaminhamento à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
+          <t>3. Conclusão: (i) rejeição das alegações defensivas e acolhimento integral do posicionamento técnico da unidade instrutiva; (ii) julgamento pela irregularidade da matéria, com fulcro no art. 75, II, da LCE nº 464/2012; (iii) aplicação de multa ao ex-prefeito Adriano Gomes de Oliveira no valor de R$ 20.585,16, com base no art. 107, II, “b”, §1º, da LCE nº 464/2012, art. 323, II, “b” do RITCE/RN e Portaria nº 005/2025-GP/TCE-RN; (iv) recomendação à Diretoria de Controle de Despesa com Pessoal (DCP) para inclusão da unidade jurisdicionada nas metas de acompanhamento do Relatório de Acompanhamento 2025–2026, visando a avaliação da execução das despesas com pessoal.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>025218/2016</t>
+          <t>600212/2020</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CÂMARA MUNICIPAL DE SANTANA DO SERIDÓ</t>
+          <t>INSTITUTO DE PREVIDÊNCIA DO MUNICÍPIO DE SÃO MIGUEL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1460,24 +1475,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Irregularidades em nomeações durante período vedado.</t>
+          <t>Informação Instrutiva - Regularização perante a SPREV.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Relator para julgamento de mérito, com aplicação de multa ao ex-prefeito e recomendação à Diretoria de Controle de Despesa com Pessoal para monitoramento futuro das despesas com pessoal.</t>
+          <t>Encaminhamento dos autos à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>600443/2019</t>
+          <t>019612/2016</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRIBUNAL DE CONTAS DO ESTADO</t>
+          <t>TRIBUNAL DE JUSTIÇA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1487,76 +1502,76 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>03/02/2025</t>
+          <t>09/04/2025</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Análise de concurso e despesas com pessoal.</t>
+          <t>Informação Instrutiva - Auditoria sobre construção de sede própria</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos à Diretoria de Controle de Pessoal e Previdência para manifestação sobre os quesitos propostos, com sugestão de remessa posterior à Diretoria de Controle de Contas de Governo e Gestão Fiscal.</t>
+          <t>Encaminhamento à unidade técnica de controle externo para análise minuciosa e específica.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>008145/2003</t>
+          <t>025218/2016</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREF.MUN.LAGOA D´ANTA                                                                                                                                                                                                                                          </t>
+          <t>CÂMARA MUNICIPAL DE SANTANA DO SERIDÓ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>GEORGE MONTENEGRO SOARES</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23/01/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>08/05/2025</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Arquivamento por prescrição intercorrente.</t>
+          <t>Nenhum resumo encontrado.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Encaminhamento para arquivamento do processo devido à prescrição intercorrente identificada.</t>
+          <t>Nenhum resumo encontrado.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>004728/2022</t>
+          <t>008222/2014</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE PEDRO AVELINO</t>
+          <t>PREFEITURA MUNICIPAL DE SANTA MARIA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+          <t>RENATO COSTA DIAS</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1571,34 +1586,34 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Irregularidades em contratações temporárias e terceirização ilícita.</t>
+          <t>Recurso - Pedido de reconsideração sobre publicação intempestiva.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Encaminhamento à Conselheira Relatora para decisão sobre rejeição das defesas apresentadas, aplicação de multas ao gestor responsável e assinatura de prazo ao Município para sanar as irregularidades constatadas.</t>
+          <t>Encaminhamento da Diretoria de Instrução Processual e Controle de Decisões ao relator para decisão final sobre a manutenção do acórdão.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>011811/2002</t>
+          <t>000371/2019</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREF.MUN.TIMBAÚBA DOS BATISTAS                                                                                                                                                                                                                                 </t>
+          <t>PREFEITURA MUNICIPAL DE LUCRÉCIA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>RENATO COSTA DIAS</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>23/01/2025</t>
+          <t>29/01/2025</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1608,29 +1623,29 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Arquivamento por prescrição intercorrente.</t>
+          <t>Nenhum resumo encontrado.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Encaminhamento para arquivamento do processo devido à prescrição intercorrente, constatada pela paralisação por mais de três anos sem interrupções válidas.</t>
+          <t>Nenhum resumo encontrado.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>008222/2014</t>
+          <t>004728/2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE SANTA MARIA</t>
+          <t>PREFEITURA MUNICIPAL DE PEDRO AVELINO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RENATO COSTA DIAS</t>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1645,34 +1660,34 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Pedido de reconsideração sobre penalidade por atraso.</t>
+          <t>1. Denúncia formulada contra a Prefeitura Municipal de Pedro Avelino/RN, relatando: (i) fracionamento e direcionamento em processos seletivos simplificados realizados entre abril e outubro de 2021; (ii) contratação da cooperativa COOPEDU, supostamente impedida de contratar com o Poder Público, em afronta à Súmula nº 281 do TCU; e (iii) não aproveitamento de concurso vigente à época, com possível prática de nepotismo e contratação de “funcionários fantasmas”.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Encaminhamento à consideração superior para conhecimento do recurso e, no mérito, negativa de provimento, com manutenção integral da decisão anterior.</t>
+          <t>5. Conclusão: (i) rejeição das alegações de defesa e desaprovação da matéria; (ii) aplicação de duas multas ao gestor José Alexandre Sobrinho, ambas no valor de R$ 10.000,00; (iii) fixação de prazo ao Município de Pedro Avelino/RN e ao atual gestor para apresentação de plano de saneamento das irregularidades, sob pena de multa diária no valor de R$ 1.000,00.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>000371/2019</t>
+          <t>008145/2003</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE LUCRÉCIA</t>
+          <t xml:space="preserve">PREF.MUN.LAGOA D´ANTA                                                                                                                                                                                                                                          </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RENATO COSTA DIAS</t>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>23/01/2025</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1682,24 +1697,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Aplicação de multa por envio de dados incorretos.</t>
+          <t>Verificação de prescrição intercorrente: Identificada paralisação do processo por período superior a três anos, sem a ocorrência de marcos interruptivos previstos nos artigos 111 e 112 da Lei Complementar Estadual nº 464/2012.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Encaminhamento para aplicação de multa ao responsável pelo envio incorreto de dados fiscais no Relatório de Gestão Fiscal, com desconsideração das demais imputações não analisadas tecnicamente.</t>
+          <t>Conclusão: Considerando o transcurso do prazo prescricional sem interrupção válida e a impossibilidade de imposição de sanções, propõe-se o arquivamento dos autos, com fundamento no art. 111, parágrafo único, da LCE nº 464/2012 e art. 434 do Regimento Interno do TCE/RN.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>302014/2021</t>
+          <t>011811/2002</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE GOIANINHA</t>
+          <t xml:space="preserve">PREF.MUN.TIMBAÚBA DOS BATISTAS                                                                                                                                                                                                                                 </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1714,66 +1729,70 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13/05/2025</t>
+          <t>09/04/2025</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Denúncia sobre transparência e regularidade administrativa.</t>
+          <t>1. Verificação de prescrição intercorrente: Identificada paralisação do processo por período superior a três anos, sem a ocorrência de marcos interruptivos previstos nos artigos 111 e 112 da Lei Complementar Estadual nº 464/2012.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Encaminhamento para arquivamento do processo por ausência de materialidade e relevância dos fatos denunciados.</t>
+          <t>3. Conclusão: Considerando o transcurso do prazo prescricional sem interrupção válida e a impossibilidade de imposição de sanções, propõe-se o arquivamento dos autos, com fundamento no art. 111, parágrafo único, da LCE nº 464/2012 e art. 434 do Regimento Interno do TCE/RN.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>003284/2022</t>
+          <t>600443/2019</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE NATAL</t>
+          <t>TRIBUNAL DE CONTAS DO ESTADO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>03/02/2025</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13/05/2025</t>
+          <t>09/04/2025</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Fraude documental em licitação da Prefeitura.</t>
+          <t>Informação Instrutiva - Análise de gestão fiscal e pessoal</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Encaminhamento do processo ao Ministério Público Estadual para apuração dos fatos e eventual adoção de providências criminais.</t>
+          <t xml:space="preserve">Ante o exposto, esta Coordenadoria de Instrução Processual remete os autos à DIRETORIA DE CONTROLE DE PESSOAL E PREVIDÊNCIA – DCP, para manifestação acerca dos quesitos propostos pelo MPC na Manifestação Ministerial nº 418/2022 (evento 197), com sugestão de remessa posterior à DIRETORIA DE CONTROLE DE CONTAS DE GOVERNO E GESTÃO FISCAL – DCC para pronunciamento acerca dos quesitos a seu cargo.  
+Natal/RN, 9 de abril de 2025.  
+[assinado digitalmente]  
+Ana Carolina Monteiro de Morais  
+Auditora de Controle Externo  </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>001380/2023</t>
+          <t>003284/2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE OURO BRANCO</t>
+          <t>PREFEITURA MUNICIPAL DE NATAL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1793,29 +1812,29 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Irregularidade em dispensa de licitação municipal.</t>
+          <t>REPRESENTAÇÃO. PREFEITURA MUNICIPAL DE NATAL/RN. PROCEDIMENTO LICITATÓRIO REALIZADO PELA SECRETARIA MUNICIPAL DE ADMINISTRAÇÃO – SEMAD. INDÍCIOS DE FRAUDE DOCUMENTAL PRATICADA POR EMPRESA LICITANTE. APRESENTAÇÃO DE ATESTADOS COM ASSINATURA DIVERGENTE E CONTRATOS COM INFORMAÇÕES INCONSISTENTES. ATO FRAUDULENTO CONTÉM-SE NA FASE DE HABILITAÇÃO. AUSÊNCIA DE DANO AO ERÁRIO. FALTA DE PROVAS INEQUÍVOCAS DO DOLO ESPECÍFICO. ARQUIVAMENTO E REMESSA AO MINISTÉRIO PÚBLICO ESTADUAL.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Encaminhamento à consideração do Relator para rejeição das alegações de defesa e aplicação de multa ao prefeito municipal, com desaprovação da matéria conforme análise técnica.</t>
+          <t>4. Conclusão: (i) Arquivamento do processo no âmbito do TCE/RN, ante a ausência de provas materiais de fraude com dolo específico; (ii) Remessa dos autos ao Ministério Público Estadual para eventual apuração criminal e adoção das providências que entender cabíveis.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>004658/2019</t>
+          <t>302014/2021</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE SÃO GONÇALO DO AMARANTE</t>
+          <t>PREFEITURA MUNICIPAL DE GOIANINHA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1830,29 +1849,29 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Arquivamento de dispensa emergencial por regularidade.</t>
+          <t xml:space="preserve">1. Entre os fatos denunciados destacam-se falhas no Portal da Transparência e no sistema e-SIC, ausência de respostas adequadas a ofícios parlamentares e suposta execução de obras públicas sem processo licitatório.  </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Encaminhamento para arquivamento do processo pela Unidade Técnica de Controle Externo.</t>
+          <t xml:space="preserve">4. Conclusão: (i) Reconhecimento da suficiência das informações prestadas e das justificativas apresentadas; (ii) Ausência de materialidade, risco ou relevância a justificar a continuidade da apuração; (iii) Arquivamento do processo.  </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>004014/2023</t>
+          <t>004658/2019</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE GUAMARÉ</t>
+          <t>PREFEITURA MUNICIPAL DE SÃO GONÇALO DO AMARANTE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1862,66 +1881,66 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>14/05/2025</t>
+          <t>13/05/2025</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Descumprimento da ordem cronológica de pagamentos.</t>
+          <t>1. A denúncia reportou possível ausência de caracterização da situação emergencial, sobreposição de serviços com quadro funcional já existente, lacunas documentais no sistema SIAI, além de inconsistência entre os valores empenhados e pagos.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Ministério Público Estadual para apuração de possível ilícito penal e aplicação de multa ao ex-prefeito.</t>
+          <t>4. Conclusão: (i) Reconhecimento da legalidade da contratação emergencial; (ii) Ausência de elementos materiais aptos a caracterizar irregularidade ou dano ao erário; (iii) Arquivamento do processo.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>004429/2020</t>
+          <t>001380/2023</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE JOÃO CÂMARA</t>
+          <t>PREFEITURA MUNICIPAL DE OURO BRANCO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>23/01/2025</t>
+          <t>29/01/2025</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>13/05/2025</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Atraso no envio da prestação de contas.</t>
+          <t>1. A defesa sustentou a existência de urgência no atendimento às demandas da Secretaria de Infraestrutura em razão da vacância de cargos efetivos, bem como a legalidade da contratação por se tratar de valor inferior ao limite estabelecido em lei. Alegou que a contratação foi devidamente instruída com parecer jurídico favorável e obedeceu aos trâmites da nova Lei de Licitações.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos ao Relator para análise e decisão final, com proposta de aplicação de multa e rejeição das alegações de defesa.</t>
+          <t>3. Conclusão: (i) Rejeição das alegações de defesa apresentadas pelo Prefeito Municipal, Sr. Samuel Oliveira de Souto; (ii) Julgamento pela irregularidade da matéria; (iii) Aplicação de multa no valor de R$ 20.585,16, em sua gradação máxima, considerando a gravidade da infração e o risco institucional decorrente da conduta.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>012267/2017</t>
+          <t>004014/2023</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE MACAÍBA</t>
+          <t>PREFEITURA MUNICIPAL DE GUAMARÉ</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1936,29 +1955,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>14/05/2025</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Irregularidades em contratos e possíveis danos ao erário.</t>
+          <t>Nenhum resumo encontrado.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Encaminhamento para citação do Prefeito de Macaíba/RN e das empresas envolvidas com vistas à apresentação de defesa sobre possíveis irregularidades contratuais.</t>
+          <t>Nenhum resumo encontrado.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>003105/2023</t>
+          <t>001553/2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CÂMARA MUNICIPAL DE SERRA NEGRA DO NORTE</t>
+          <t>PREFEITURA MUNICIPAL DE MOSSORÓ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1968,7 +1987,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>23/01/2025</t>
+          <t>09/05/2025</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1978,61 +1997,61 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Apuração de omissão na prestação de contas.</t>
+          <t>Informação Instrutiva - Irregularidades no Portal da Transparência</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos ao relator para rejeição das alegações de defesa, desaprovação da matéria, aplicação de multa ao gestor e suspensão da certidão de adimplência até a regularização.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA DESPESA PÚBLICA - DCD para realização da instrução preliminar sumária dos autos, conforme determinado pelo Relator.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>301435/2025</t>
+          <t>012267/2017</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SECRETARIA MUNICIPAL DE EDUCAÇÃO DE MOSSORÓ</t>
+          <t>PREFEITURA MUNICIPAL DE MACAÍBA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Descumprimento de ordem cronológica de pagamentos.</t>
+          <t>Irregularidades identificadas : a denúncia formulada apontou possíveis ilícitos em contratos firmados com diversas empresas, notadamente a B&amp;B Locação de Mão de Obra e a M. Teixeira de Brito – ME, envolvendo suspeitas de inexecução contratual, origem duvidosa do capital social e favorecimento indevido. Verificou-se, ainda, a ausência de documentos essenciais como cópias de contratos, aditivos e comprovantes de pagamentos.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Encaminhamento da Unidade de Controle Externo à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para instrução preliminar sumária.</t>
+          <t>Conclusão: (i) reconhecimento da irregularidade material decorrente da ausência de resposta válida à requisição documental e da permanência de indícios relevantes de descumprimento contratual; (ii) proposição de citação do Prefeito Municipal, Sr. Edvaldo Emídio da Silva Júnior, e das empresas B&amp;B Locação de Mão de Obra e M. Teixeira de Brito – ME para apresentação de defesa; (iii) prosseguimento da instrução com vistas à apuração de responsabilidades e possível aplicação de sanções.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>001553/2025</t>
+          <t>003105/2023</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE MOSSORÓ</t>
+          <t>CÂMARA MUNICIPAL DE SERRA NEGRA DO NORTE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2042,7 +2061,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>09/05/2025</t>
+          <t>23/01/2025</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2052,66 +2071,66 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Irregularidades no Portal da Transparência Municipal.</t>
+          <t>1. Irregularidades identificadas: a unidade técnica constatou a omissão no dever de prestar contas anuais de gestão relativas ao exercício de 2022 pela Câmara Municipal de Serra Negra do Norte/RN, sob responsabilidade do gestor Alysson Moisés de Medeiros. O envio não foi realizado dentro do prazo regulamentar nem regularizado nos quarenta dias subsequentes, caracterizando infração formal grave.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Encaminhamento da Unidade de Controle Externo à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para realização da instrução preliminar.</t>
+          <t>4. Conclusão: (i) rejeição das alegações de defesa apresentadas pelo Sr. Alysson Moisés de Medeiros; (ii) julgamento pela irregularidade da matéria; (iii) aplicação de multa no valor de R$ 20.585,16 ao gestor; (iv) suspensão da emissão da Certidão de Adimplência enquanto persistir a omissão.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>101358/2021</t>
+          <t>301435/2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">MARIA JOSE MARTINS                                                                                                                                                                                                                                             </t>
+          <t>SECRETARIA MUNICIPAL DE EDUCAÇÃO DE MOSSORÓ</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>RENATO COSTA DIAS</t>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>09/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>16/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Denegação de aposentadoria e monitoramento de decisão.</t>
+          <t>Informação Instrutiva - Comunicação de irregularidade em pagamentos</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos à Diretoria de Registro de Atos de Pessoal para providências relacionadas ao monitoramento da decisão.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA DESPESA PÚBLICA - DCD para realização da instrução preliminar sumária dos autos, conforme determinado pelo Relator.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>005851/2010</t>
+          <t>004429/2020</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">MINISTÉRIO PÚBLICO DO ESTADO DO RIO GRANDE DO NORT                                                                                                                                                                                                             </t>
+          <t>PREFEITURA MUNICIPAL DE JOÃO CÂMARA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2121,29 +2140,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>16/05/2025</t>
+          <t>15/05/2025</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Arquivamento por prescrição intercorrente.</t>
+          <t xml:space="preserve">Irregularidades identificadas: foi identificado o envio extemporâneo das contas anuais de gestão da Prefeitura Municipal de João Câmara/RN referentes ao exercício de 2019. O prazo regulamentar para envio se encerrava em 30 de junho de 2020, mas a remessa ocorreu apenas em 02 de outubro de 2020, representando um atraso de 94 dias.  </t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Encaminhamento para arquivamento do processo devido à ocorrência de prescrição intercorrente.</t>
+          <t xml:space="preserve">Conclusão: (i) rejeição das alegações de defesa apresentadas; (ii) julgamento pela irregularidade da matéria; (iii) aplicação de multa no valor de R$ 5.000,00 ao Sr. Manoel dos Santos Bernardo, em razão do envio intempestivo das contas anuais de gestão do exercício de 2019.  </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>002249/2013</t>
+          <t>005851/2010</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM.MUN.GUAMARÉ                                                                                                                                                                                                                                                </t>
+          <t xml:space="preserve">MINISTÉRIO PÚBLICO DO ESTADO DO RIO GRANDE DO NORT                                                                                                                                                                                                             </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2158,128 +2177,128 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>19/05/2025</t>
+          <t>16/05/2025</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Análise de recursos sobre irregularidades administrativas.</t>
+          <t>Nenhum resumo encontrado.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Encaminhamento dos pedidos de reconsideração ao Tribunal de Contas para manter o Acórdão original, exceto em relação à empresa M.V. Pedroza Jucá, onde se reconhece a nulidade da citação e a prescrição da pretensão punitiva.</t>
+          <t>Nenhum resumo encontrado.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>001280/2022</t>
+          <t>101358/2021</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SECRETARIA MUNICIPAL DE SAÚDE DE NATAL</t>
+          <t xml:space="preserve">MARIA JOSE MARTINS                                                                                                                                                                                                                                             </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+          <t>RENATO COSTA DIAS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>09/05/2025</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>19/05/2025</t>
+          <t>16/05/2025</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gestão inadequada na política de controle de zoonoses.</t>
+          <t>Informação Instrutiva - Aposentadoria com irregularidades não sanadas</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Encaminhamento à Diretoria de Avaliação de Políticas Públicas (DPP) para avaliação da política municipal de controle de zoonoses e aplicação de multa ao gestor responsável.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à DAP para providências, conforme determinado pelo Relator no evento 38.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>001503/2025</t>
+          <t>001280/2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE FLORÂNIA</t>
+          <t>SECRETARIA MUNICIPAL DE SAÚDE DE NATAL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>29/01/2025</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>19/05/2025</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Irregularidade na contratação de serviços de engenharia.</t>
+          <t xml:space="preserve">Irregularidades identificadas : Constatou -se a aquisição de dois veículos do tipo trailer, ao custo de R$ 420.800,00, que permaneceram paralisados e sem uso desde sua aq uisição. Os trailers não foram registrados, apresentavam deterioração e jamais funcionaram como unidades móveis de castração. Verificou -se ainda a ausência de planejamento estruturado, descumprimento de normas técnicas sobre esterilização cirúrgica e falta de dados epidemiológicos sobre zoonoses, comprometendo a transparência e a eficácia da política pública.  </t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Encaminhamento à Diretoria de Controle de Infraestrutura e Meio Ambiente para avaliação de materialidade, risco e relevância dos fatos e indicação de tratamento no Plano de Fiscalização Anual ou posterior análise.</t>
+          <t>(ii) desaprovação da matéria, diante da configuração de infração de natureza formal e material; (iii) aplicação de multa no valor de R$ 20.585,16 ao Sr. George Antunes de Oliveira; (iv) expedição de recomendação à Diretoria de Avaliação de Políticas Públicas (DPP) para conside rar, no Relatório de Acompanhamento 2025 –2026, a inclusão de ação específica voltada à política de controle de zoonoses em Natal/RN, com base em evidências, a fim de orientar futuras decisões públicas.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>001505/2025</t>
+          <t>002249/2013</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE FLORÂNIA</t>
+          <t xml:space="preserve">CAM.MUN.GUAMARÉ                                                                                                                                                                                                                                                </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>13/05/2025</t>
+          <t>23/01/2025</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>19/05/2025</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Irregularidade em contratação de cooperativa de saúde.</t>
+          <t>Informação Conclusiva - Análise de reconsideração sobre irregularidades contratuais.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Encaminhamento à Diretoria de Controle de Pessoal e Previdência para pronunciamento quanto à materialidade, risco e relevância dos fatos apontados.</t>
+          <t>Encaminhamento dos pedidos de reconsideração para manutenção integral do Acórdão, exceto quanto ao recurso de M.V. Pedroza Jucá, para anulação dos atos posteriores à citação por edital e reconhecimento da prescrição da pretensão punitiva.</t>
         </is>
       </c>
     </row>
@@ -2311,19 +2330,19 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Arquivamento de denúncia sobre pregão presencial.</t>
+          <t>1. Irregularidades identificadas: a denúncia formulada pela empresa Prime Consultoria e Assessoria Empresarial Ltda. alegou que o edital do Pregão Presencial nº 044/2018 apresentava cláusulas restritivas à competitividade, como a exigência de rede de postos de combustível credenciados a cada 100 km nas rodovias estaduais e a limitação do preço do combustível ao valor médio da ANP. Apontou risco de desequilíbrio econômico-financeiro do contrato e de direcionamento da licitação.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Encaminhamento para arquivamento do processo por ausência de indícios de irregularidades no procedimento licitatório.</t>
+          <t>4. Conclusão: (i) improcedência da denúncia formulada pela empresa Prime Consultoria; (ii) reconhecimento da regularidade do procedimento licitatório; (iii) arquivamento do processo, por ausência de indícios de lesão ao interesse público ou de ilegalidade relevante.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>001504/2025</t>
+          <t>001503/2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2338,7 +2357,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13/05/2025</t>
+          <t>20/05/2025</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2348,19 +2367,19 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Apuração de irregularidade em nomeação de procurador.</t>
+          <t>Informação Instrutiva - Irregularidade em contratação de engenharia.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Encaminhamento à Diretoria de Controle de Pessoal e Previdência para avaliação de materialidade, risco e relevância dos fatos apontados.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à DIRETORIA DE CONTROLE DE INFRAESTRUTURA E MEIO AMBIENTE – DIA para pronunciamento sobre a subsistência de materialidade, risco e relevância dos fatos apontados, indicando a viabilidade de tratamento imediato no Plano de Fiscalização Anual vigente ou tratamento posterior, mediante cadastro de demanda fiscalizatória ou proposta de tema de maior significância, nos termos da decisão proferida pelo Conselheiro Relator.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>001507/2025</t>
+          <t>001503/2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2375,7 +2394,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13/05/2025</t>
+          <t>20/05/2025</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2385,19 +2404,25 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Irregularidade na contratação de transporte escolar.</t>
+          <t>Informação Instrutiva - Irregularidade em contrato de engenharia</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Encaminhamento da Diretoria de Instrução Processual e Controle de Decisões à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para pronunciamento.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à  
+DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA  
+DESPESA PÚBLICA - DCD para pronunciamento sobre a subsistência de  
+materialidade, risco e relevância dos fatos apontados, indicando a viabilidade de  
+tratamento imediato no Plano de Fiscalização Anual vigente ou tratamento posterior,  
+mediante cadastro de demanda fiscalizatória ou proposta de tema de maior  
+significância, nos termos da decisão proferida pelo Conselheiro Relator.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>001506/2025</t>
+          <t>001504/2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2422,61 +2447,73 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Apuração de irregularidades em contratação municipal.</t>
+          <t>Informação Instrutiva - Apuração de irregularidade em nomeação.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Encaminhamento à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para análise de materialidade, risco, relevância e viabilidade de fiscalização.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à  
+DIRETORIA DE CONTROLE DE PESSOAL E PREVIDÊNCIA - DCP para  
+pronunciamento sobre a subsistência de materialidade, risco e relevância dos fatos  
+apontados, indicando a viabilidade de tratamento imediato no Plano de Fiscalização  
+Anual vigente ou tratamento posterior, mediante cadastro de demanda fiscalizatória ou  
+proposta de tema de maior significância, nos termos da decisão proferida pelo Conselheiro  
+Relator.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>000209/2023</t>
+          <t>001507/2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROCURADORIA GERAL DE JUSTIÇA                                                                                                                                                                                                                                  </t>
+          <t>PREFEITURA MUNICIPAL DE FLORÂNIA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GEORGE MONTENEGRO SOARES</t>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>23/01/2025</t>
+          <t>13/05/2025</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>20/05/2025</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Pagamento antecipado em contratações públicas irregulares.</t>
+          <t>Informação Instrutiva - Irregularidade em contratação de transporte escolar.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos ao Relator para apreciação das conclusões e propostas de aplicação de sanção ao gestor responsável.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à  
+DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA  
+DESPESA PÚBLICA - DCD para pronunciamento sobre a subsistência de  
+materialidade, risco e relevância dos fatos apontados, indicando a viabilidade de  
+tratamento imediato no Plano de Fiscalização Anual vigente ou tratamento posterior,  
+mediante cadastro de demanda fiscalizatória ou proposta de tema de maior  
+significância, nos termos da decisão proferida pelo Conselheiro Relator.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>301005/2025</t>
+          <t>001505/2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DA EDUCAÇÃO, DA CULTURA, DO ESPORTE E DO LAZER</t>
+          <t>PREFEITURA MUNICIPAL DE FLORÂNIA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2486,192 +2523,207 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>13/05/2025</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>22/04/2025</t>
+          <t>20/05/2025</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Possíveis irregularidades em pregão de locação.</t>
+          <t>Informação Instrutiva - Irregularidade em contratação de cooperativa</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Encaminhamento da Unidade de Controle Externo à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para instrução preliminar.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à  
+DIRETORIA DE CONTROLE DE PESSOAL E PREVIDÊNCIA - DCP para 
+pronunciamento sobre a subsistência de materialidade, risco e relevância dos fatos 
+apontados, indicando a viabilidade de tratamento imediato no Plano de Fiscalização 
+Anual vigente ou tra tamento posterior, mediante cadastro de demanda fiscalizatória ou 
+proposta de tema de maior significância , nos termos da decisão proferida pelo Conselheiro 
+Relator.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>001294/1999</t>
+          <t>001506/2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREF.MUN.RIACHUELO                                                                                                                                                                                                                                             </t>
+          <t>PREFEITURA MUNICIPAL DE FLORÂNIA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GEORGE MONTENEGRO SOARES</t>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>13/05/2025</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>22/04/2025</t>
+          <t>20/05/2025</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Arquivamento por prescrição de irregularidades formais.</t>
+          <t>Informação Instrutiva - Apontamento de irregularidades em contratação.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Encaminhamento para arquivamento do processo, com envio de cópia dos autos ao Ministério Público Estadual para providências cabíveis.</t>
+          <t>"Ante o exposto, esta Unidade de Controle Externo remete os autos à  
+DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA 
+DESPESA PÚBLICA - DCD para pronunciamento sobre a subsistência de 
+materialidade, risco e relevância dos fatos ap ontados, indicando a viabilidade de 
+tratamento imediato no Plano de Fiscalização Anual vigente ou tratamento posterior, 
+mediante cadastro de demanda fiscalizatória ou proposta de tema de maior 
+significância, nos termos da decisão proferida pelo Conselheiro Relator."</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>300276/2025</t>
+          <t>000209/2023</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SECRETARIA MUNICIPAL DE ADMINISTRAÇÃO DE NATAL</t>
+          <t xml:space="preserve">PROCURADORIA GERAL DE JUSTIÇA                                                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
+          <t>GEORGE MONTENEGRO SOARES</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>03/04/2025</t>
+          <t>23/01/2025</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>23/04/2025</t>
+          <t>21/05/2025</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Suspensão de pregão eletrônico por denúncia.</t>
+          <t xml:space="preserve">Irregularidades identificadas : constatou-se a realização de pagamentos antecipados em contratações fundamentadas nas Inexigibilidades nºs 026/2022 e 027/2022 (contratação de artistas) e na Dispensa nº 025/2022 (serviços de segurança), firmadas pela Prefeitura Municipal de Lagoa D’Anta/RN. Os pagamentos foram realizados em 10/05/2022, antes da prestação dos serviços agendados para 11/05/2022, sem demonstração de vantagem econômica, garantias contratuais ou justificativas técnicas suficientes, em descompasso com os preceitos legais aplicáveis à execução da despesa pública.  </t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública (DCD) para pronunciamento conclusivo.</t>
+          <t xml:space="preserve">Conclusão: (i) rejeição das alegações de defesa apresentadas; (ii) julgamento pela irregularidade da matéria; (iii) aplicação de multa ao Prefeito João Paulo Guedes Lopes no valor de R$ 20.585,16, em sua gradação máxima, como sanção proporcional à gravidade dos fatos constatados.  </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>000546/2023</t>
+          <t>001294/1999</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE JARDIM DE PIRANHAS</t>
+          <t xml:space="preserve">PREF.MUN.RIACHUELO                                                                                                                                                                                                                                             </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>GEORGE MONTENEGRO SOARES</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>03/02/2025</t>
+          <t>29/01/2025</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>23/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Comunicação de irregularidade sobre gestão fiscal.</t>
+          <t>Nenhum resumo encontrado.</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos à Diretoria de Controle de Contas de Governo e Gestão Fiscal para pronunciamento.</t>
+          <t>Nenhum resumo encontrado.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>303175/2021</t>
+          <t>301005/2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE LAGOA D´ANTA</t>
+          <t>SECRETARIA DE ESTADO DA EDUCAÇÃO, DA CULTURA, DO ESPORTE E DO LAZER</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>04/04/2025</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>23/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Responsabilização administrativa por inadimplência em gestão.</t>
+          <t>Informação Instrutiva - Representação sobre pregão de Chromebooks</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos à Diretoria de Controle de Contas de Gestão para apuração do dano ao erário e análise da conduta da ex-prefeita, com citação da mesma para apresentação de defesa.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à  
+DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA 
+DESPESA PÚBLICA - DCD para realização da instrução preliminar sumária dos autos, 
+conforme determinado pelo Relator.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>005306/2024</t>
+          <t>000546/2023</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE MACAU</t>
+          <t>PREFEITURA MUNICIPAL DE JARDIM DE PIRANHAS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>03/02/2025</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2681,34 +2733,34 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Denúncia sobre irregularidades em edital cultural.</t>
+          <t>Informação Instrutiva - Comunicação sobre irregularidade fiscal.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Encaminhamento da Unidade de Controle Externo à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para instrução preliminar.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à DCC para pronunciamento, conforme determinado pelo Relator no evento 09.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>001879/2024</t>
+          <t>005306/2024</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>INSTITUTO DE PREVIDÊNCIA SOCIAL DOS SERVIDORES DO MUNICÍPIO DE NATAL</t>
+          <t>PREFEITURA MUNICIPAL DE MACAU</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GEORGE MONTENEGRO SOARES</t>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>27/03/2025</t>
+          <t>04/04/2025</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2718,320 +2770,327 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Auditoria sobre inadimplência previdenciária em Natal.</t>
+          <t>Informação Instrutiva - Irregularidades em edital cultural</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Encaminhamento à apreciação do Relator para decisão sobre aplicação de sanções aos responsáveis e fixação de prazo para regularização das pendências previdenciárias.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à  
+DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA  
+DESPESA PÚBLICA - DCD para realização da instrução preliminar sumária dos autos,  
+conforme determinado pelo Relator.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>003103/2023</t>
+          <t>300276/2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE RAFAEL FERNANDES</t>
+          <t>SECRETARIA MUNICIPAL DE ADMINISTRAÇÃO DE NATAL</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>27/02/2025</t>
+          <t>03/04/2025</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>23/04/2025</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Omissão na prestação de contas anuais.</t>
+          <t>Informação Instrutiva - Denúncia sobre pregão de informática</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Relator com proposta de rejeição das alegações de defesa, desaprovação da matéria, aplicação de multa ao gestor e suspensão da Certidão de Adimplência enquanto persistir a irregularidade.</t>
+          <t>```
+Considerando a regular notificação do Secretário, esta unidade técnica da 
+Diretoria de Instrução Processual e Controle de Decisões – DIP remete os autos à DCD para 
+pronunciamento conclusivo nos autos.
+```</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>001317/2017</t>
+          <t>303175/2021</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRIBUNAL DE CONTAS DO ESTADO</t>
+          <t>PREFEITURA MUNICIPAL DE LAGOA D´ANTA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ANTONIO ED SOUZA SANTANA</t>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>15/04/2025</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>23/04/2025</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Monitoramento de auditoria do sistema prisional.</t>
+          <t>1. Defesa preliminar do atual gestor indica a adoção de providências corretivas, incluindo o ajuizamento de Ação Civil Pública por improbidade administrativa e o envio de representação ao Ministério Público Estadual. O Ministério Público de Contas opinou pelo arquivamento do feito, alegando a incompetência do Tribunal de Contas para julgar ex-prefeitos, com base no Tema 835 da repercussão geral do STF.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Encaminhamento do processo à Diretoria de Avaliação de Políticas Públicas para análise do Plano de Ação e inclusão em ação fiscalizatória no Plano de Fiscalização Anual.</t>
+          <t>4. Conclusão: (i) Declaração da competência do TCE/RN para julgamento da presente representação, com base na ADPF nº 982 do STF; (ii) Remessa dos autos à Diretoria de Controle de Contas de Gestão para apuração do dano ao erário e análise da conduta da ex-prefeita; (iii) Determinação de citação da Sra. Taianni Lopes Santos para apresentação de defesa, assegurando-se o contraditório e a ampla defesa.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>002206/2023</t>
+          <t>001879/2024</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DA SAÚDE PUBLICA</t>
+          <t>INSTITUTO DE PREVIDÊNCIA SOCIAL DOS SERVIDORES DO MUNICÍPIO DE NATAL</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>GEORGE MONTENEGRO SOARES</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>27/03/2025</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>24/04/2025</t>
+          <t>23/04/2025</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Apuração de irregularidades em contratação sem licitação.</t>
+          <t>Irregularidades apontadas : (i) inadimplemento sistemático das contribuições devidas ao NATALPREV durante o quinquênio auditado; (ii) inadimplência mesmo após celebração de parcelamentos; (iii) valores não abrangidos por acordos formais; (iv) repasses extemporâneos dos valores retidos de servidores; (v) ausência de comprovação de atos diligentes por parte dos gestores responsáveis à época dos fatos.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Encaminhamento da Coordenadoria de Instrução Processual à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para pronunciamento conclusivo.</t>
+          <t>Conclusão: (i) procedência parcial dos achados da auditoria; (ii) manutenção das imputações de responsabilidade administrativa aos seguintes gestores: Álvaro Costa Dias (Prefeito de Natal), Raniere de Medeiros Barbosa, Paulo Eduardo da Costa Freire e Ériko Samuel Xavier de Oliveira (Presidentes da Câmara Municipal em gestões diversas) e Dácio Tavares de Freitas Galvão (Presidente da FUNCARTE); (iii) aplicação de multa nos termos do art. 107, II, "f", da LCE nº 464/2012, a ser fixada conforme os critérios de gravidade e extensão da omissão; (iv) recomendação para que seja fixado prazo para adoção de medidas saneadoras no âmbito do RPPS do Município de Natal, visando à regularização integral dos débitos pendentes.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>000289/2023</t>
+          <t>001317/2017</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE OURO BRANCO</t>
+          <t>TRIBUNAL DE CONTAS DO ESTADO</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+          <t>ANTONIO ED SOUZA SANTANA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>24/04/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Apuração de irregularidades em transporte escolar.</t>
+          <t>Informação Instrutiva - Reanálise técnica de auditoria necessária</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Encaminhamento à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para análise e pronunciamento técnico.</t>
+          <t>Encaminhamento do processo à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>000760/2025</t>
+          <t>001317/2017</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SECRETARIA DE ESTADO DA EDUCAÇÃO, DA CULTURA, DO ESPORTE E DO LAZER</t>
+          <t>TRIBUNAL DE CONTAS DO ESTADO</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>ANTONIO ED SOUZA SANTANA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>25/04/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Denúncia sobre transparência em contratações temporárias.</t>
+          <t>Informação Instrutiva - Auditoria sobre sistema prisional estadual</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Encaminhamento à Diretoria de Controle de Pessoal e Previdência para realização de instrução preliminar.</t>
+          <t>Recomenda-se, por conseguinte, o arquivamento dos presentes autos, com a devida autuação em apartado como processo de monitoramento, a fim de viabilizar o acompanhamento sistemático da execução das medidas propostas, em conformidade com os §2º e §4º do art. 10 da Resolução n° 08/2013.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>001039/2025</t>
+          <t>003103/2023</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>COMPANHIA POTIGUAR DE GÁS</t>
+          <t>PREFEITURA MUNICIPAL DE RAFAEL FERNANDES</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SEM RELATOR</t>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>23/04/2025</t>
+          <t>27/02/2025</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>25/04/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Inclusão do GNV em relatório de transporte.</t>
+          <t>Irregularidades identificadas: verificada a omissão do então gestor da Prefeitura Municipal de Rafael Fernandes/RN, Sr. Francisco Bruno Ferreira Costa, no envio tempestivo das Contas Anuais de Gestão referentes aos exercícios de 2021 e 2022, conforme registro no Sistema Integrado de Auditoria Informatizada (SIAI).</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Encaminhamento do documento ao gabinete do Conselheiro Relator para apensamento aos autos do processo relacionado.</t>
+          <t>Conclusão: (i) rejeição das alegações de defesa apresentadas; (ii) julgamento pela irregularidade da matéria; (iii) aplicação de multa ao Sr. Francisco Bruno Ferreira Costa no valor de R$ 20.585,16; (iv) suspensão da Certidão de Adimplência junto ao TCE/RN enquanto persistir a omissão.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>006450/2017</t>
+          <t>000289/2023</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE PORTO DO MANGUE</t>
+          <t>PREFEITURA MUNICIPAL DE OURO BRANCO</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>10/01/2025</t>
+          <t>29/01/2025</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>24/04/2025</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Fixação irregular de subsídios de agentes políticos.</t>
+          <t>Informação Instrutiva - Apuração de irregularidades em transporte escolar.</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos ao Relator para julgamento de irregularidade da matéria e aplicação das penalidades propostas.</t>
+          <t>Ante o exposto, esta Coordenadoria de Instrução Processual remete os autos à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública – DCD, com a maior brevidade possível, dada a relevância da questão apresentada.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>001981/2023</t>
+          <t>002206/2023</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE UMARIZAL</t>
+          <t>SECRETARIA DE ESTADO DA SAÚDE PUBLICA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>15/04/2025</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>24/04/2025</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Irregularidades em contratos e gestão de dívidas.</t>
+          <t>Informação Instrutiva - Representação sobre contratação por inexigibilidade</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Relator para apreciação e decisão quanto à desaprovação da matéria, imputação de débito solidário aos gestores e aplicação das penalidades propostas.</t>
+          <t>Ante o exposto, esta Coordenadoria de Instrução Processual remete os autos à DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA DESPESA PÚBLICA – DCD para pronunciamento conclusivo.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>005230/2024</t>
+          <t>000760/2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE CAMPO GRANDE</t>
+          <t>SECRETARIA DE ESTADO DA EDUCAÇÃO, DA CULTURA, DO ESPORTE E DO LAZER</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3041,108 +3100,114 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>25/04/2025</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>28/04/2025</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Análise de contas do prefeito sem defesa.</t>
+          <t>Informação Instrutiva - Comunicação sobre professores temporários</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Encaminhamento ao gabinete do Conselheiro Relator para decretação de revelia do responsável e posterior envio ao Ministério Público de Contas para pronunciamento.</t>
+          <t xml:space="preserve">De todo modo, informo que as unidades técnicas de controle externo, em razão da sua capacidade operacional e necessidade de sopesamento de risco, materialidade e relevância dos casos em concreto, buscam priorizar atuações mais abrangentes em detrimento de situações pontuais e individualizadas. Assim, esta Unidade Técnica de Controle Externo remete os autos ao Gabinete do Conselheiro Relator, sugerindo a manifestação acerca do recebimento da denúncia ou representação, conforme art. 5º do Provimento nº. 02/2020-CORREG/TCE4. 
+Natal/RN, 1 de abril de 2025.  
+[assinado digitalmente]  
+Ana Carolina Monteiro de Morais  
+Auditora de Controle Externo  </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>011897/2011</t>
+          <t>000760/2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM.MUN.SÃO GONÇALO DO AMARANTE                                                                                                                                                                                                                                </t>
+          <t>SECRETARIA DE ESTADO DA EDUCAÇÃO, DA CULTURA, DO ESPORTE E DO LAZER</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GEORGE MONTENEGRO SOARES</t>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>19/05/2025</t>
+          <t>04/04/2025</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>25/04/2025</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Arquivamento por prescrição decenal.</t>
+          <t>Informação Instrutiva - Denúncia sobre irregularidades na SEEC</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos ao Conselheiro Relator para reconhecimento da prescrição e arquivamento do processo.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à  
+DIRETORIA DE CONTROLE DE PESSOAL E PREVIDÊNCIA - DCP para realização 
+da instrução preliminar sumária dos autos, conforme determinado pelo Relator.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>003382/2020</t>
+          <t>001039/2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE TOUROS</t>
+          <t>COMPANHIA POTIGUAR DE GÁS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>RENATO COSTA DIAS</t>
+          <t>SEM RELATOR</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>03/04/2025</t>
+          <t>23/04/2025</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>29/04/2025</t>
+          <t>25/04/2025</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Arquivamento por prescrição intercorrente.</t>
+          <t>Informação Instrutiva - Inclusão do GNV em licitação</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Encaminhamento para arquivamento do processo devido à ocorrência de prescrição intercorrente.</t>
+          <t>Considerando a relação de pertinência temática entre o conteúdo do ofício e o processo nº 002993/2024 -TC, cujo relator é o Conselheiro George Montenegro Soares, esta Unidade Técnica faz remessa do presente documento ao gabinete do Conselheiro Relator , com a sugestão de que seja apensado aos autos do Processo nº 002993/2024-TC.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>301048/2025</t>
+          <t>001981/2023</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE SEN.ELOI DE SOUZA</t>
+          <t>PREFEITURA MUNICIPAL DE UMARIZAL</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3152,108 +3217,108 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>29/04/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>29/04/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Denúncia sobre descumprimento do dever de transparência.</t>
+          <t>Nenhum resumo encontrado</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Encaminhamento da Unidade de Controle Externo à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para instrução preliminar.</t>
+          <t>Nenhum resumo encontrado</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>000705/2025</t>
+          <t>006450/2017</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE SERRINHA</t>
+          <t>PREFEITURA MUNICIPAL DE PORTO DO MANGUE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>RENATO COSTA DIAS</t>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>10/01/2025</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>29/04/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Denúncia sobre transparência das contas públicas.</t>
+          <t>1. Irregularidades identificadas : a Lei Municipal nº 02/2016, do Município de Porto do Mangue/RN, promoveu aumento da remuneração dos agentes políticos para vigência na legislatura seguinte, mas foi editada após o prazo fixado pelo Tribunal de Contas e sem observância das exigências legais , como o estudo de impacto orçamentário-financeiro. Além disso, pagamentos com base nessa norma continuaram sendo efetuados na gestão posterior, configurando ilegalidade continuada e gerando dano ao erário.</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Encaminhamento da Diretoria de Instrução Processual à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública (DCD) para instrução preliminar.</t>
+          <t xml:space="preserve">4. Conclusão: (i) julgamento pela irregularidade da matéria; (ii) procedência da representação; (iii) determinação para que o Município de Porto do Mangue se abstenha de realizar pagamentos fundados na Lei Municipal nº 02/2016; (iv) condenação do Sr. Hipólito Sael Holanda Melo ao ressarcimento ao erário da diferença paga indevidamente, a ser apurada em liquidação; (v) aplicação de multa ao mesmo gestor, proporcional à gravidade da conduta.  </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>002957/2018</t>
+          <t>001981/2023</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CÂMARA MUNICIPAL DE MACAU</t>
+          <t>PREFEITURA MUNICIPAL DE UMARIZAL</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>29/04/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Execução de multa por omissão na gestão.</t>
+          <t xml:space="preserve">1. Irregularidades identificadas: a inspeção identificou contratação de operação de crédito pela Prefeitura Municipal de Umarizal/RN com o Banco Gerador S.A., mediante convênio firmado sem autorização legislativa, sem comprovação de adequação orçamentária e em desacordo com os limites legais. Verificou-se ainda a execução de 110 empréstimos consignados, dos quais apenas 27 possuíam vínculo com o Município. Os demais resultaram em pagamentos indevidos com recursos públicos, totalizando dano de R$ 779.984,89. Constatou-se também ausência de registro contábil da dívida entre 2013 e 2019 e falhas graves na retenção, repasse e controle dos valores.  </t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Encaminhamento à adoção de medidas para fixação do limite máximo da multa e execução forçada do débito acumulado.</t>
+          <t>4. Conclusão: (i) rejeição das defesas apresentadas por Carlindson Onofre e Elijane Paiva; (ii) imputação solidária de débito no valor de R$ 779.984,89 aos ex-prefeitos José Rogério de Souza Fonseca e Carlindson Onofre; (iii) aplicação de multa individual a José Rogério de Souza Fonseca e Carlindson Onofre pelas irregularidades relativas à contratação, execução e omissão no controle da operação de crédito; (iv) aplicação de multa à ex-prefeita Elijane Paiva de Freitas pela omissão quanto à escrituração contábil da dívida e pela ausência de medidas corretivas durante sua gestão; (v) desaprovação da matéria, diante da gravidade das irregularidades materiais constatadas.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>300688/2025</t>
+          <t>005230/2024</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE SÃO MIGUEL DE GOSTOSO</t>
+          <t>PREFEITURA MUNICIPAL DE CAMPO GRANDE</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3263,310 +3328,605 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>08/04/2025</t>
+          <t>25/04/2025</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>29/04/2025</t>
+          <t>28/04/2025</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Denúncia sobre irregularidade em licitação municipal.</t>
+          <t>Informação Instrutiva - Contas do prefeito não defendidas</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Encaminhamento da Unidade de Controle Externo à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública para a instrução preliminar sumária.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos ao gabinete do Conselheiro Relator, com a sugestão de decretação da revelia do responsável e posterior encaminhamento dos autos ao Ministério Público de Contas para pronunciamento.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>005179/2019</t>
+          <t>011897/2011</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE BARAÚNA</t>
+          <t xml:space="preserve">CAM.MUN.SÃO GONÇALO DO AMARANTE                                                                                                                                                                                                                                </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+          <t>GEORGE MONTENEGRO SOARES</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>23/01/2025</t>
+          <t>19/05/2025</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Pedido de reconsideração sobre omissão na prestação de contas.</t>
+          <t xml:space="preserve">1. As apurações preliminares apontaram a existência de incoerência entre os quantitativos contratados e a demanda efetiva, ausência de justificativas técnicas para as contratações, excesso de consumo de combustível e insuficiência de documentos comprobatórios.  </t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Encaminhamento do recurso de Pedido de Reconsideração para análise superior, com proposta de manutenção integral da decisão recorrida.</t>
+          <t>4. Conclusão pelo reconhecimento da prescrição intercorrente da pretensão punitiva estatal, nos termos do art. 111, parágrafo único, da LCE nº 464/2012 e arquivamento dos autos.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>005114/2021</t>
+          <t>011897/2011</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CÂMARA MUNICIPAL DE LAGOA D´ANTA</t>
+          <t xml:space="preserve">CAM.MUN.SÃO GONÇALO DO AMARANTE                                                                                                                                                                                                                                </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>GEORGE MONTENEGRO SOARES</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>19/05/2025</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Omissão na prestação de contas de gestão.</t>
+          <t xml:space="preserve">1. Verificação de prescrição decenal : Com base no artigo 170 da LCE nº 464/2012, entendeu -se configurada a prescrição decenal da pretensão punitiva e executória. A instrução destacou precedentes recentes do TCE/RN reconhecendo a mesma tese, inclusive com base nos Temas 897 e 899 de repercussão geral firmados pelo Supremo Tribunal Federal, que consolidam o entendimento sobre a aplicabilidade da prescrição no âmbito dos Tribunais de Contas.  </t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Relator para rejeição das alegações de defesa, desaprovação da matéria, aplicação de multa ao gestor e suspensão da Certidão de Adimplência.</t>
+          <t xml:space="preserve">2. Conclusão: (i) reconhecimento da incidência da prescrição decenal da pretensão punitiva e executória do Tribunal;  (ii) impossibilidade de aplicação de sanções administrativas em razão da extinção da pretensão estatal;  (iii) proposta de arquivamento do processo.  </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>002322/2024</t>
+          <t>301048/2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE NATAL</t>
+          <t>PREFEITURA MUNICIPAL DE SEN.ELOI DE SOUZA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>GEORGE MONTENEGRO SOARES</t>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>29/04/2025</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>29/04/2025</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Acompanhamento de licitação de transporte coletivo.</t>
+          <t>Informação Instrutiva - Denúncia sobre falta de transparência municipal</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos à Diretoria de Controle de Infraestrutura e Meio Ambiente para manifestação, conforme determinação do Relator.</t>
+          <t>Sendo assim, esta Unidade de Controle Externo remete os autos à DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA DESPESA PÚBLICA - DCD para realização da instrução preliminar sumária dos autos, conforme determinado pelo Relator.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>017609/2016</t>
+          <t>002957/2018</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CÂMARA MUNICIPAL DE PEDRO AVELINO</t>
+          <t>CÂMARA MUNICIPAL DE MACAU</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GEORGE MONTENEGRO SOARES</t>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>09/02/2025</t>
+          <t>29/01/2025</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>29/04/2025</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Irregularidades em remunerações na Câmara Municipal.</t>
+          <t>1. Prestação de contas da Câmara Municipal de Macau/RN, exercício de 2015, inicialmente imputada aos ex-gestores Emanuel da Silva Galdino e Jairton de Araújo Medeiros, sem apresentação tempestiva da documentação obrigatória. Determinação anterior do TCE/RN (Acórdão nº 326/2020-TC) impondo obrigação de fazer ao atual gestor, sob pena de multa diária.</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos ao Ministério Público de Contas para pronunciamento conclusivo.</t>
+          <t>4. Conclusão: (i) fixação do limite máximo da multa; (ii) determinação para, após o trânsito em julgado, promover a execução forçada do débito correspondente à multa diária acumulada, com a respectiva inscrição para cobrança, nos termos regimentais.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>301296/2022</t>
+          <t>003382/2020</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE MONTE ALEGRE</t>
+          <t>PREFEITURA MUNICIPAL DE TOUROS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>RENATO COSTA DIAS</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>03/04/2025</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>30/04/2025</t>
+          <t>29/04/2025</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Contratação irregular de cooperativa para serviços educacionais.</t>
+          <t>Nenhum resumo encontrado.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Encaminhamento ao Relator para análise das defesas, aplicação de multa ao ex-gestor e fixação de prazo ao Município para regularização das irregularidades constatadas.</t>
+          <t>Nenhum resumo encontrado.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>303174/2021</t>
+          <t>000705/2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE LAGOA D´ANTA</t>
+          <t>PREFEITURA MUNICIPAL DE SERRINHA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO CHAVES ALVES</t>
+          <t>RENATO COSTA DIAS</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>15/04/2025</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>30/04/2025</t>
+          <t>29/04/2025</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Descumprimento de normas na transição administrativa municipal.</t>
+          <t>Informação Instrutiva - Denúncia sobre transparência em Serrinha</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Encaminhamento dos autos ao Relator para decisão, com proposta de aplicação de multa à ex-prefeita e suspensão da certidão de adimplência.</t>
+          <t>Sendo assim, esta Unidade de Controle Externo remete os autos à DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA DESPESA PÚBLICA - DCD para realização da instrução preliminar sumária dos autos, conforme determinado pelo Relator.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>005354/2024</t>
+          <t>300688/2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DE JAPI</t>
+          <t>PREFEITURA MUNICIPAL DE SÃO MIGUEL DE GOSTOSO</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ANTONIO ED SOUZA SANTANA</t>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
+          <t>08/04/2025</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>29/04/2025</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Apensamento de documento sobre contas executivas municipais.</t>
+          <t>Informação Instrutiva - Denúncia sobre licitação em São Miguel.</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Apensamento de documento ao processo para análise das contas do Chefe do Poder Executivo da Prefeitura Municipal de Japi.</t>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à  
+DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA 
+DESPESA PÚBLICA - DCD para realização da instrução preliminar sumária dos autos, 
+conforme determinado pelo Relator.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>002322/2024</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NATAL</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Correção de tarifa de transporte público</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à DIRETORIA DE CONTROLE DE INFRAESTRUTURA E MEIO AMBIENTE – DIA para manifestação, conforme determinado pelo Relator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>005179/2019</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE BARAÚNA</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Recurso - Prestação de contas anual extemporânea</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Encaminhamento para conhecimento e não provimento do recurso de Pedido de Reconsideração, mantendo integralmente os termos do Acórdão que aplicou multa à responsável pela omissão na prestação tempestiva das contas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>017609/2016</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE PEDRO AVELINO</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>09/02/2025</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>005114/2021</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE LAGOA D´ANTA</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1. Irregularidades identificadas: A DAM constatou omissão na prestação das Contas Anuais de Gestão do exercício de 2020 pelo Sr. CARLOS DUARTE BATISTA, gestor da Câmara Municipal de Lagoa D’Anta/RN. Esta omissão configura irregularidade grave, passível de multa e suspensão da Certidão de Adimplência junto ao TCE/RN.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>4. Conclusão: Diante da omissão, da ausência de comprovação de impedimento legítimo e da responsabilidade do gestor atual, propõe-se a rejeição da defesa e a desaprovação da matéria. Consequentemente, aplica-se multa ao Sr. CARLOS DUARTE BATISTA no valor de R$ 20.585,16 e a suspensão da Certidão de Adimplência enquanto perdurar a irregularidade.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>301296/2022</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE MONTE ALEGRE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>30/04/2025</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Irregularidades apontadas : (i) inabilitação da empresa denunciante com base em interpretação restritiva da qualificação técnica exigida no edital, afrontando os princípios da isonomia e da competitividade; (ii) contratação de cooperativa para prestação de serviços de natureza subordinada, com pessoalidade e habitualidade, violando os arts. 4º e 5º da Lei nº 12.690/2012, a Súmula nº 281 do TCU, o Enunciado nº 331 do TST e precedentes do STF e do STJ; (iii) atuação da COOPEDU em desconformidade com seu objeto social; (iv) potencial responsabilização do Município por encargos trabalhistas decorrentes da relação fática de emprego.  </t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4. Conclusão : (i) rejeição das alegações de defesa do Sr. André Rodrigues da Silva, então Prefeito Municipal; (ii) desaprovação da matéria, com aplicação de multa no valor de R$ 10.000,00, com fundamento no art. 107, II, “f”, da LCE nº 464/2012; (iii) fixação de prazo de 60 dias ao Município de Monte Alegre/RN para apresentação de plano de regularização das irregularidades constatadas, sob pena de multa diária de R$ 1.000,00 ao atual gestor.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>303174/2021</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE LAGOA D´ANTA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>30/04/2025</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Irregularidades constatadas: (i) ausência de conciliações bancárias, relação de bens de consumo em estoque, declarações previdenciárias, extratos bancários e informações sobre restos a pagar; (ii) entrega parcial e incompleta da documentação exigida pela Resolução nº 034/2016-TCE/RN; (iii) descumprimento do dever legal objetivo de fornecer os dados indispensáveis à continuidade da gestão pública.  </t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4. Conclusão: (i) rejeição das alegações de defesa apresentadas pela ex-prefeita Taianni Lopes Santos; (ii) desaprovação da matéria, com base no art. 75, II, da Lei Complementar Estadual nº 464/2012; (iii) aplicação de multa no valor de R$ 20.585,16, correspondente à gradação máxima prevista no art. 107, II, §4º, da LCE nº 464/2012 c/c o art. 21, I, “a”, §1º, da Resolução nº 012/2016 e Portaria nº 005/2025-GP/TCE-RN; (iv) suspensão da emissão da certidão de adimplência da gestora junto ao TCE/RN enquanto perdurar a irregularidade.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>000739/2023</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>GOVERNO DO ESTADO DO RN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>03/02/2025</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Acompanhamento do uso do SIGEF como SIAFIC.</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Apensamento de documento ao processo em acompanhamento no Tribunal de Contas do Estado do Rio Grande do Norte.</t>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Adoção do SIGEF como SIAFIC estadual</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Encaminhamento para acompanhamento da adoção do SIGEF como SIAFIC pelos poderes e órgãos autônomos estaduais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>005354/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE JAPI</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ANTONIO ED SOUZA SANTANA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Contas do prefeito de Japi.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Encaminhamento da Coordenadoria de Instrução Processual para apensamento de documento às contas do chefe do Poder Executivo da Prefeitura Municipal de Japi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>006494/2019</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE JARDIM DE PIRANHAS</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Irregularidades apontadas: Infringência ao disposto no artigo 5º, II da Resolução nº 004/2013 -TCE/RN, pelo não envio do comprovante de publicação do Relatório Resumido de Execução Orçamentária (RREO) através do sistema SIAI, referente ao 2º, 4º e 5º bimestres de 2015.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Encaminhamento: Propõe-se o acolhimento parcial da defesa, sugerindo-se a rejeição dos argumentos sobre a ilegalidade da multa e a necessidade de comprovação de dolo, mas acolher a tese de ne bis in idem para afastar a penalidade específica pelo não envio do comprovante de publicação do RREO.</t>
         </is>
       </c>
     </row>

--- a/scripts/saidas/sisdgf/processos_cip.xlsx
+++ b/scripts/saidas/sisdgf/processos_cip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3930,6 +3930,4241 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>200116/2022</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CONSÓRCIO PÚBLICO REGIONAL DE SANEAMENTO BÁSICO DO VALE DO ASSU DO RIO GRANDE DO NORTE</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Inadimplência na remessa de SIAI-DP</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Ante o exposto, esta Coordenadoria de Instrução Processual remete os autos à unidade técnica de controle externo competente para pronunciamento conclusivo, conforme despacho do Conselheiro Relator no evento 54.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>001751/2019</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE UMARIZAL</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Recurso - Reexame das contas anuais de 2017.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Encaminhamento do recurso para conhecimento e parcial provimento, com manutenção do parecer desfavorável às contas, alterando a fundamentação para incluir intempestividade e irregularidades materiais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>000906/2020</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NOVA CRUZ</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Recurso - Pedido para revisão de multa aplicada.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Encaminhamento para análise e decisão superior, com proposta de manutenção integral da multa aplicada e dos termos do acórdão vigente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>600234/2020</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>INSTITUTO DE PREVIDÊNCIA DOS SERVIDORES DE BOA SAÚDE</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>03/06/2025</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Apuração de repasses previdenciários indevidos</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>001132/2023</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE PEDRO AVELINO</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>09/02/2025</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>03/06/2025</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Encaminhamento para análise técnica adicional</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Encaminhamento à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>003633/2024</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SECRETARIA DE ESTADO DA AGRICULTURA, DA PECUÁRIA E DA PESCA</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>09/02/2025</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>03/06/2025</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Monitoramento de cumprimento de determinações tribunalícias</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>001470/2022</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE CAIÇARA DO RIO DO VENTO</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Irregularidades em contratações municipais</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à  
+DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA  
+DESPESA PÚBLICA – DCD para elaboração de informação conclusiva.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>010205/2017</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SÃO RAFAEL</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>09/01/2025</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1. Irregularidades identificadas: o processo visava à apuração de responsabilidade decorrente de parecer prévio desfavorável à aprovação das contas anuais de governo de 2013 do Município de São Rafael, com base em decisão anulada por vício de ausência de citação do responsável.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>4. Conclusão: reconhecimento da prescrição trienal intercorrente da pretensão punitiva, com consequente arquivamento dos autos, em consonância com o art. 111, parágrafo único, da Lei Complementar Estadual nº 464/2012, o art. 434 do Regimento Interno e a Súmula nº 27/TCE-RN.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>000162/2025</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SECRETARIA MUNICIPAL DE ADMINISTRAÇÃO DE NATAL</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>003125/2021</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE GALINHOS</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>07/06/2025</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Irregularidades apontadas: (i) Fragilidade na justificativa da inexigibilidade de licitação baseada no artigo 25, I e II, da Lei nº 8.666/1993, sem demonstração suficiente da singularidade e exclusividade do material “Cidadania A-Z”. (ii) Ausência de comprovação da entrega do objeto contratado (cartilhas e curso), bem como da liquidação da despesa (nota fiscal). (iii) Indícios de direcionamento na contratação, com iniciativa da empresa contratada e replicação do mesmo modelo em diversos municípios. (iv) Pedido de prorrogação de prazo de defesa sem decisão expressa, seguido de inércia processual do gestor.  </t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encaminhamentos recomendados: (i) Desaprovação da matéria, com aplicação de multa máxima ao ex-gestor Francinaldo Silva da Cruz. (ii) Declaração de nulidade do contrato firmado, por afronta à legalidade e princípios administrativos. (iii) Instauração de tomada de contas especial, para apuração de responsabilidade e quantificação do dano. (iv) Subsidiariamente, abertura de processo de apuração de responsabilidade em autos apartados. </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>003124/2021</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE MACAU</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>07/06/2025</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1. Irregularidades apontadas: (i) Ausência de comprovação da exclusividade e da singularidade do objeto contratado, contrariando o art. 25 da Lei nº 8.666/1993. (ii) Existência de alternativas gratuitas e similares no mercado, como as cartilhas “Brasilzinho” e “João Cidadão”, inviabilizando a inexigibilidade. (iii) Dinâmica invertida de contratação, com indícios de que a demanda pública foi criada pela própria empresa contratada (CEBEC), cujos sócios participaram da formulação da política pública “Setembro Cidadão”. (iv) Sobreposição entre símbolos oficiais da política pública e marca registrada da empresa contratada, revelando direcionamento e promoção indevida de interesse privado.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>4. Encaminhamentos recomendados: (i) Desaprovação da matéria, com aplicação de multa ao ex-gestor no valor de R$ 20.585,16. (ii) Declaração de nulidade do contrato por afronta à Lei nº 8.666/1993 e à Constituição Federal. (iii) Instauração de tomada de contas especial para apuração de responsabilidade e quantificação de eventual dano ao erário. (iv) Subsidiariamente, abertura de processo de apuração de responsabilidade em autos apartados.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>004231/2020</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE JOÃO CÂMARA</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>004231/2020</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE JOÃO CÂMARA</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>004231/2020</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE JOÃO CÂMARA</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>007716/2019</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE PARNAMIRIM</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>09/06/2025</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Análise de gratificação indevida (jetons).</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Encaminhamento à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>003935/2019</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE MAJOR SALES</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Irregularidades apontadas: (i) Remessa do Anexo 15 do Sistema Integrado de Auditoria Informatizada (SIAI) com valor zerado da Receita Corrente Líquida (RCL) referente ao 6º bimestre de 2015; (ii) Ausência de saneamento posterior dos dados enviados; (iii) Descumprimento do art. 19 da Resolução nº 032/2016-TC e dos arts. 48, §1º, II, e 48-A, I, da Lei de Responsabilidade Fiscal.  </t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4. Encaminhamentos recomendados: (i) Rejeição das alegações de defesa; (ii) Aplicação de multa administrativa ao gestor Francisco de Sales Mafaldo, no valor máximo previsto, nos termos da Lei Complementar nº 464/2012 e do Regimento Interno do TCE/RN; (iii) Encaminhamento à relatoria para decisão final.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>303549/2024</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE PENDÊNCIAS</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Encaminhamento de declaração para convênio</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Nesse sentido, não havendo justificativa para continuidade da tramitação regular do feito, encaminho os autos à SECEX, sugerindo o arquivamento do expediente, dado que já cumpriu o objetivo final para o qual foi constituído, nos termos do art. 209, inciso V, do Regimento Interno desta Corte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>303523/2024</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE PARELHAS</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Encaminhamento de declarações para convênio</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>"Nesse sentido, não havendo justificativa para continuidade da tramitação regular do feito, encaminho os autos à SECEX, sugerindo o arquivamento do expediente, dado que já cumpriu o objetivo final para o qual foi constituído, nos termos do art. 209, inciso V, do Regimento Interno desta Corte."</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>303489/2024</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE PUREZA</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Encaminhamento de declarações para convênio</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Encaminho os autos à SECEX, sugerindo o arquivamento do expediente, dado que já cumpriu o objetivo final para o qual foi constituído, nos termos do art. 209, inciso V, do Regimento Interno desta Corte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>005112/2020</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE TANGARÁ</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>303487/2024</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SÃO BENTO DO TRAIRÍ</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Encaminhamento de declarações para convênio</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Em outras palavras, a remessa da declaração visa cumprir requisito formal para fins de transferência voluntária de recursos da União para o Município. Nesse sentido, não havendo justificativa para continuidade da tramitação regular do feito, encaminho os autos à SECEX, sugerindo o arquivamento do expediente, dado que já cumpriu o objetivo final para o qual foi constituído, nos termos do art. 209, inciso V, do Regimento Interno desta Corte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>303490/2024</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE FELIPE GUERRA</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Convênio municipal com Governo Federal</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>"Encaminho os autos à SECEX, sugerindo o arquivamento do expediente, dado que já cumpriu o objetivo final para o qual foi constituído, nos termos do art. 209, inciso V, do Regimento Interno desta Corte."</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>303488/2024</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE TANGARÁ</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Encaminhamento de declaração para convênio.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nesse sentido, não havendo justificativa para continuidade da tramitação regular do feito, encaminho os autos à SECEX, sugerindo o arquivamento do expediente, dado que já cumpriu o objetivo final para o qual foi constituído, nos termos do art. 209, inciso V, do Regimento Interno desta Corte.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>303484/2024</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE FRANCISCO DANTAS</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Encaminhamento de declarações para convênio</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Encaminho os autos à SECEX, sugerindo o arquivamento do expediente, dado que já cumpriu o objetivo final para o qual foi constituído, nos termos do art. 209, inciso V, do Regimento Interno desta Corte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>303561/2024</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE LUCRÉCIA</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Declarações para convênio com União</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>"Não havendo justificativa para continuidade da tramitação regular do feito, encaminho os autos à SECEX, sugerindo o arquivamento do expediente, dado que já cumpriu o objetivo final para o qual foi constituído, nos termos do art. 209, inciso V, do Regimento Interno desta Corte."</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>005407/2024</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE ARÊS</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Declarações para convênio governamental formalizadas</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Encaminho os autos à SECEX, sugerindo o arquivamento do expediente, dado que já cumpriu o objetivo final para o qual foi constituído, nos termos do art. 209, inciso V, do Regimento Interno desta Corte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>004333/2019</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE VENHA VER</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>MARCO ANTÔNIO DE MORAES RÊGO MONTENEGRO</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>303481/2024</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE OURO BRANCO</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Encaminhamento de declarações para convênio.</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Nesse sentido, não havendo justificativa para continuidade da tramitação regular do feito, encaminho os autos à SECEX, sugerindo o arquivamento do expediente, dado que já cumpriu o objetivo final para o qual foi constituído, nos termos do art. 209, inciso V, do Regimento Interno desta Corte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>010903/2015</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SECRETARIA DE ESTADO DA EDUCAÇÃO, DA CULTURA, DO ESPORTE E DO LAZER</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Análise técnica complementar de auditoria.</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos à unidade técnica de controle externo competente para análise minuciosa e específica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>301284/2024</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SECRETARIA DE ESTADO DA SAÚDE PUBLICA</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Irregularidades identificadas: a representação, formulada por clínicas concorrentes, apontou possíveis irregularidades na habilitação e contratação da empresa Centro de Hemodiálise de Parnamirim (CHP) no âmbito da Chamada Pública nº 03/2022 da SESAP/RN, notadamente: (i) vínculos societários com empresas sancionadas; (ii) ausência de habilitação junto ao Ministério da Saúde; (iii) apresentação de alvarás sanitários inconsistentes; e (iv) suposta estruturação societária para burlar sanções administrativas.  </t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4. Conclusão: (i) reconhecimento da inexistência de pressupostos mínimos para responsabilização administrativa dos gestores e da empresa contratada; (ii) acolhimento da proposta técnica pela inexistência de irregularidades materiais; (iii) arquivamento do processo, nos termos do art. 71 da LCE nº 464/2012, em respeito ao princípio da segurança jurídica e à autoridade da coisa julgada material.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>002336/2024</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SECRETARIA ESTADUAL DO ESTADO – SESAP/RN                                                                                                                                                                                                                       </t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Análise sobre terceirização de mão de obra.</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>A conclusão é:  
+"Esta Coordenadoria de Instrução Processual remete os autos à DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA DESPESA PÚBLICA - DCD para pronunciamento conclusivo, nos termos do art. 2º, inciso I do Provimento nº 001/2020 - CORREG/TCE (Resolução nº 012/2020 - TCE/RN)."</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>001761/2023</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>TRIBUNAL DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Inadimplência no pagamento de precatórios.</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"  
+Natal/RN, 17 de junho de 2025.   
+[assinado digitalmente]  
+Ana Carolina Monteiro de Morais  
+Auditora de Controle Externo  
+"  </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>001253/2023</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TRIBUNAL DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Inadimplência em precatórios municipais.</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>A conclusão do texto:  
+"Outrossim, dê-se ciência à Secretaria de Controle Externo – SECEX, para que avalie, nos termos de sua competência, a viabilidade de inclusão, no modelo padrão de prestação de contas eletrônicas do Chefe do Poder Executivo Municipal, de campo específico destinado à juntada de “certidão de adimplência” relativa ao pagamento de precatórios judiciais, a ser expedida pelo Tribunal de Justiça do Estado do Rio Grande do Norte, como forma de aprimorar os instrumentos de verificação da regularidade fiscal dos entes jurisdicionados."</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>001761/2023</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>TRIBUNAL DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Inadimplência no pagamento de precatórios municipais</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nesse contexto, esta Unidade de Controle Externo remete os autos à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública – DCD, para que avalie a possibilidade de registro do tema ora tratado como “Demanda Fiscalizatória” no âmbito do SISPFA, com o consequente cadastramento da matéria em conformidade com os parâmetros técnicos e classificações temáticas adequadas.  
+Outrossim, dê-se ciência à Secretaria de Controle Externo – SECEX, para que avalie, nos termos de sua competência, a viabilidade de inclusão, no modelo padrão de prestação de contas eletrônicas do Chefe do Poder Executivo Municipal, de campo específico destinado à juntada de “certidão de adimplência” relativa ao pagamento de precatórios judiciais, a ser expedida pelo Tribunal de Justiça do Estado do Rio Grande do Norte, como forma de aprimorar os instrumentos de verificação da regularidade fiscal dos entes jurisdicionados.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>011682/2007</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE BOA SAÚDE</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1. Irregularidades identificadas: a instrução técnica inicial e o parecer ministerial apontaram a ocorrência de diversas irregularidades formais e materiais na gestão da Prefeitura Municipal de Boa Saúde/RN no exercício de 2007, incluindo: (i) pagamento de despesas alheias às finalidades públicas; (ii) concessão de diárias sem comprovação de deslocamento; (iii) lançamento de tarifa bancária por devolução de cheque; e (iv) falhas na publicação dos Relatórios Resumidos da Execução Orçamentária e de Gestão Fiscal. O Acórdão nº 272/2016 -TC desaprovou as contas e determinou sanções pecuniárias e ressarcitórias.</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>4. Conclusão: (i) reconhecimento da prescrição quinquenal da pretensão punitiva e da pretensão de ressarcimento, com fundamento na aplicação analógica da Lei Federal nº 9.873/1999 e na jurisprudência do TCE/RN; (ii) arquivamento do processo, com afastamento da análise de mérito das irregularidades anteriormente apontadas; (iii) encaminhamento de cópia da decisão ao Ministério Público Estadual, para ciência e adoção de providências que entender cabíveis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>003228/2023</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>PROCURADORIA GERAL DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Fiscalização de possível responsabilidade fiscal</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à Diretoria de Controle de Pessoal e Previdência - DCP para realização da instrução preliminar sumária dos autos, conforme determinado pelo Relator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>003228/2023</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>PROCURADORIA GERAL DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Possível infração à Responsabilidade Fiscal</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à  
+DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA  
+DESPESA PÚBLICA - DCD para realização da instrução preliminar sumária dos autos,  
+conforme determinado pelo Relator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>001770/2023</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>TRIBUNAL DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Inadimplência de precatórios municipais apontada</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diretoria de Instrução Processual e Controle de Decisões – DIP 
+Página | 1 
+Processo nº 001770/2023 – TC 
+Assunto: OFÍCIO Nº 3745/2023 ENCAMINHA CÓPIA DE DECISÃO PROFERIDA NOS 
+AUTOS DO PROC. Nº 2023.000047-2 (SEUESTRO) 
+Relator: Sem Relator 
+INFORMAÇÃO INSTRUTIVA 
+Trata-se de Comunicação de Irregularidade apresentada por magistrado  do 
+Tribunal de Justiça do Estado do Rio Grande do Norte – TJRN, na qual é apontada 
+inadimplência no pagamento de precatórios por parte da Prefeitura Municipal de Nísia 
+Floresta/RN.  
+Em analise dos autos, observa -se que o Conselheiro Relator determinou seu  
+encaminhamento ao Corpo Técnico para realização de instrução preliminar sumária. 
+Ocorre que, conforme disciplinado no Manual do Sistema Informatizado de 
+Planejamento e Fiscalização (SISPFA) , aprovado por esta Corte, no caso de demandas 
+fiscalizatórias originadas de processo ou documento protocolado, após o respectivo registro 
+no sistema, poderá a unidade técnica de controle externo propor o arquivamento dos autos 
+originais, desde que o desdobramento da matéria ocorra fora daqueles autos e que, se 
+necessário, estes possam ser acessados eletronicamente no futuro (Item 3.2.4). 
+Nesse contexto, esta Unidade de Controle Externo remete os autos à Diretoria de 
+Controle de Contas de Gestão e Execução da Despesa Pública – DCD, para que avalie a 
+possibilidade de regis tro do tema ora tratado como “Demanda Fiscalizatória” no âmbito do 
+SISPFA, com o consequente cadastramento da matéria em conformidade com os parâmetros 
+técnicos e classificações temáticas adequadas. 
+Outrossim, dê-se ciência à Secretaria de Controle Externo  – SECEX, para que 
+avalie, nos termos de sua competência, a viabilidade de inclusão, no modelo padrão de 
+prestação de contas eletrônicas do Chefe do Poder Executivo Municipal, de campo específico 
+destinado à juntada de “ certidão de adimplência ” relativa ao  pagamento de precatórios 
+judiciais, a ser expedida pelo Tribunal de Justiça do Estado do Rio Grande do Norte, como 
+forma de aprimorar os instrumentos de verificação da regularidade fiscal dos entes 
+jurisdicionados. 
+Natal/RN, 13 de junho de 2025.   
+Diretoria de Instrução Processual e Controle de Decisões – DIP 
+Página | 2 
+[assinado digitalmente] 
+Ana Carolina Monteiro de Morais 
+Auditora de Controle Externo </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>001905/2021</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE JARDIM DE PIRANHAS</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Inadimplência em pagamento de precatórios</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A conclusão do texto é:
+"  
+Nesse contexto, esta Unidade de Controle Externo remete os autos à Diretoria de 
+Controle de Contas de Gestão e Execução da Despesa Pública – DCD, para que avalie a 
+possibilidade de registro do tema ora tratado como “Demanda Fiscalizatória” no âmbito do 
+SISPFA, com o consequente cadastramento da matéria em conformidade com os parâmetros 
+técnicos e classificações temáticas adequadas. 
+Outrossim, dê-se ciência à Secretaria de Controle Externo – SECEX, para que 
+avalie, nos termos de sua competência, a viabilidade de inclusão, no modelo padrão de 
+prestação de contas eletrônicas do Chefe do Poder Executivo Municipal, de campo específico 
+destinado à juntada de “ certidão de adimplência ” relativa ao pagamento de precatórios 
+judiciais, a ser expedida pelo Tribunal de Justiça do Estado do Rio Grande do Norte, c omo  
+forma de aprimorar os instrumentos de verificação da regularidade fiscal dos entes 
+jurisdicionados." </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>001928/2025</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>TRIBUNAL DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Inadimplência no pagamento de precatórios</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Natal/RN, 12 de junho de 2025.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>003228/2023</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>PROCURADORIA GERAL DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Análise de denúncia sobre irregularidades fiscais</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assim, esta Unidade Técnica de Controle Externo remete os autos ao Gabinete do Conselheiro Relator, sugerindo a manifestação acerca do recebimento da denúncia ou representação, conforme art. 5º do Provimento nº. 02/2020-CORREG/TCE4.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>002468/2023</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>TRIBUNAL DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Inadimplência no pagamento de precatórios.</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>```
+Natal/RN, 12 de junho de 2025.    
+Diretoria de Instrução Processual e Controle de Decisões – DIP 
+Página | 2 
+[assinado digitalmente] 
+Ana Carolina Monteiro de Morais 
+Auditora de Controle Externo  
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>000421/2023</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>TRIBUNAL DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ANA PAULA DE OLIVEIRA GOMES</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Inadimplência em precatórios de município.</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diretoria de Instrução Processual e Controle de Decisões – DIP 
+Página | 1 
+Processo nº 000421/2023 - TC 
+Assunto: Ofício nº 133/2023 Encaminha declaração Ref. Proc. Nº 2021.500056-7 (Sequestro) 
+Relatora: Conselheira Substituta Ana Paula de Oliveira Gomes 
+INFORMAÇÃO INSTRUTIVA 
+Trata-se de Comunicação de Irregularidade apresentad a por magistrado do 
+Tribunal de Justiça do Estado do Rio Grande do Norte – TJRN, na qual é apontada 
+inadimplência no pagamento de precatórios por parte da Prefeitura Municipal de Vera 
+Cruz/RN.  
+Em analise dos autos, observa -se que o Conselheiro Relator det erminou seu 
+encaminhamento a Corpo Técnico para conhecimento e anotações que entendesse pertinentes. 
+Ocorre que, conforme disciplinado no Manual do Sistema Informatizado de 
+Planejamento e Fiscalização (SISPFA) , aprovado por esta Corte, no caso de demandas 
+fiscalizatórias originadas de processo ou documento protocolado, após o respectivo registro 
+no sistema, poderá a unidade técnica de controle externo propor o arquivamento dos autos 
+originais, desde que o desdobramento da matéria ocorra fora daqueles autos e que, se 
+necessário, estes possam ser acessados eletronicamente no futuro (Item 3.2.4). 
+Nesse contexto, esta Unidade de Controle Externo remete os autos à Diretoria de 
+Controle de Contas de Gestão e Execução da Despesa Pública – DCD, para que avalie a 
+possibilidade de registro do tema ora tratado como “Demanda Fiscalizatória” no âmbito do 
+SISPFA, com o consequente cadastramento da matéria em conformidade com os parâmetros 
+técnicos e classificações temáticas adequadas. 
+Outrossim, dê-se ciência à Secretaria de Controle Externo – SECEX, para que 
+avalie, nos termos de sua competência, a viabilidade de inclusão, no modelo padrão de 
+prestação de contas eletrônicas do Chefe do Poder Executivo Municipal, de campo específico 
+destinado à juntada de “ certidão de adimp lência” relativa ao pagamento de precatórios 
+judiciais, a ser expedida pelo Tribunal de Justiça do Estado do Rio Grande do Norte, como 
+forma de aprimorar os instrumentos de verificação da regularidade fiscal dos entes 
+jurisdicionados. 
+Natal/RN, 12 de junho de 2025.  
+Diretoria de Instrução Processual e Controle de Decisões – DIP 
+Página | 2 
+[assinado digitalmente] 
+Ana Carolina Monteiro de Morais 
+Auditora de Controle Externo </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>001696/2023</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>TRIBUNAL DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Inadimplência de precatórios pela Prefeitura</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>"Outrossim, dê-se ciência à Secretaria de Controle Externo – SECEX, para que avalie, nos termos de sua competência, a viabilidade de inclusão, no modelo padrão de prestação de contas eletrônicas do Chefe do Poder Executivo Municipal, de campo específico destinado à juntada de 'certidão de adimplência' relativa ao pagamento de precatórios judiciais, a ser expedida pelo Tribunal de Justiça do Estado do Rio Grande do Norte, como forma de aprimorar os instrumentos de verificação da regularidade fiscal dos entes jurisdicionados."</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>701034/2012</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE BOA SAÚDE</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>701186/2012</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE ANGICOS</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>ANTONIO ED SOUZA SANTANA</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>701186/2011</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE CAICÓ</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>002405/2017</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>TRIBUNAL DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Inadimplência em pagamento de precatórios.</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Natal/RN, 23 de junho de 2025.  
+[assinado digitalmente]  
+Ana Carolina Monteiro de Morais  
+Auditora de Controle Externo  </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>700762/2012</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SERRA NEGRA DO NORTE</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Recurso - Intempestividade na remessa de relatórios fiscais</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Encaminhamento dos autos à apreciação superior para análise dos Pedidos de Reconsideração e deliberação sobre a reforma parcial do acórdão.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>001273/2023</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>TRIBUNAL DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Representação sobre gestão municipal responsável.</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à  
+DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA  
+DESPESA PÚBLICA - DCD para realização da instrução preliminar sumária dos autos,  
+conforme determinado pelo Relator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>701186/2012</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE ANGICOS</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>ANTONIO ED SOUZA SANTANA</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>700977/2012</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE NATAL</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Recurso - Pedidos de reconsideração sobre gestão fiscal.</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Encaminhamento para reforma parcial do acórdão, com manutenção de penalidades em alguns pontos, afastamento de sanção ligada ao repasse ao Legislativo e parcial provimento aos pedidos de reconsideração.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>701731/2011</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE PUREZA</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Informação Conclusiva - Irregularidades na divulgação de relatórios fiscais</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Manutenção integral da decisão anterior com aplicação de multas e negativa de provimento ao recurso de reconsideração.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>700851/2012</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE APODI</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>A auditoria apontou irregularidades na gestão fiscal da Prefeitura Municipal de Apodi/RN, exercício 2012, incluindo atrasos na entrega de Relatórios Resumidos de Execução Orçamentária (RREOs) e Relatório de Gestão Fiscal (RGF), ausência de publicação de alguns documentos fiscais, baixa arrecadação de impostos, falta de registro de precatórios e extrapolação do limite prudencial de despesas com pessoal.</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Concluiu-se pela desaprovação da matéria remanescente e pela aplicação de duas multas de R$ 300,00 cada, em razão de atrasos de 1 e 10 dias na entrega dos RREOs, respectivamente, com base na jurisprudência e considerando a natureza formal das infrações.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>700851/2012</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE APODI</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Análise de entregas da Prefeitura de Apodi</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Encaminhamento para análise da situação de entrega do RGF, RREOs, contas anuais e comprovações de publicação relacionadas à Prefeitura Municipal de Apodi no ano de 2012.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>701451/2011</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE RUY BARBOSA</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Recurso - Irregularidades na remessa de comprovantes fiscais.</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Encaminhamento para conhecimento do recurso de reconsideração e, no mérito, negativa de provimento ao recurso, com manutenção integral da decisão anterior.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>304345/2023</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE MACAÍBA</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Solicitação de certidão sobre FUNDEB</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>"Em outras palavras, a remessa da declaração visa cumprir requisito formal para fins de transferência voluntária de recursos da União para o ente. Nesse sentido, considerando que se trata de solicitação de certidão que remonta ao ano de 2023, encaminho os autos à SECEX, sugerindo o arquivamento do expediente, nos termos do art. 209, inciso VI, do Regimento Interno desta Corte."</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>701032/2012</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE VÁRZEA</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Recurso - Ilegitimidade passiva em prestação de contas.</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Encaminhamento para reformar integralmente o acórdão impugnado, reconhecendo a ilegitimidade passiva do recorrente, excluindo-o do polo passivo processual e extinguindo o feito sem resolução de mérito quanto a ele.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>701473/2011</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE TIBAU DO SUL</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>CARLOS THOMPSON COSTA FERNANDES</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Recurso - Pedido de reconsideração em gestão fiscal.</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>O processo foi encaminhado para conhecimento e, no mérito, provimento parcial do pedido de reconsideração, com reforma do acórdão e redução do valor da multa, mantendo-se as demais sanções.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>701492/2011</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE BARAÚNA</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Entrega de obrigações da Câmara Municipal.</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Encaminhamento para análise da situação de entrega dos relatórios fiscais, anexos bimestrais, contas anuais e comprovantes de publicação da Câmara Municipal de Baraúna no ano de 2011.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>700822/2012</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SÃO PAULO DO POTENGI</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>REPRESENTAÇÃO. PREFEITURA MUNICIPAL DE SÃO PAULO DO POTENGI. EXERCÍCIO DE 2012. IRREGULARIDADES INICIAIS NA PUBLICIDADE DOS RELATÓRIOS FISCAIS. DEFESA COMPROVANDO A TEMPESTIVIDADE DAS REMESSAS. AUSÊNCIA DE FALHAS MATERIAIS OU FORMAIS. PROPOSTA DE QUITAÇÃO DO RESPONSÁVEL E ARQUIVAMENTO.</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>4. Conclusão: opina-se pela regularidade da matéria e pela consequente quitação dos responsáveis, José Azevedo Lopes e José Leonardo Cassimiro de Araújo, com proposta de arquivamento do processo, por inexistência de falhas materiais ou formais que comprometam os atos de gestão fiscal praticados no exercício de 2012.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>700822/2012</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SÃO PAULO DO POTENGI</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Análise de entregas obrigatórias municipais</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Encaminhamento para análise da situação de entrega do RGF, RREOs, contas anuais e comprovantes de publicação da Prefeitura Municipal de São Paulo do Potengi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>701492/2011</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE BARAÚNA</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>701123/2012</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SAO BENTO DO NORTE</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Irregularidades identificadas: A análise técnica detectou atrasos e ausência de comprovação de publicação de relatórios fiscais (RGF e RREO), ausência de consolidação das contas dos Poderes Executivo e Legislativo e inconsistências em diversos anexos do SIAI, comprometendo a fidedignidade dos dados. Registrou-se ainda a utilização de veículo de imprensa oficial sem comprovação de validade jurídica para a divulgação dos demonstrativos.</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Conclusão: Rejeição das defesas, desaprovação da matéria e aplicação de multas pecuniárias e proporcionais aos vencimentos dos gestores Luiz Lucas Alves Júnior e Cláudio Henrique Gomes Pereira, incluindo penalidade adicional por sonegação de informação. Encaminhamento da proposta de decisão ao Relator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>701279/2011</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SÃO JOÃO DO SABUGI</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>CARLOS THOMPSON COSTA FERNANDES</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Recurso - Reconsideração sobre tempestividade de publicações.</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Encaminhamento para reforma integral da decisão anteriormente proferida, com provimento do recurso e afastamento da responsabilização do recorrente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>701744/2011</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE MARTINS</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Recurso - Prestação de contas exercício 2011 Martins</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Encaminhamento para conhecimento do Recurso de Reexame e, no mérito, manutenção integral da desaprovação das contas, com confirmação das multas aplicadas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>700978/2011</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE GOVERNADOR DIX-SEPT ROSADO</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Recurso - Reconsideração sobre irregularidade em gestão fiscal.</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Encaminhamento da análise técnica pelo provimento parcial do recurso e reforma do acórdão, com reclassificação das infrações, redução das multas e manutenção de sanção específica referente ao descumprimento do Anexo 41 do SIAI.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>700806/2012</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE DOUTOR SEVERIANO</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Recurso - Análise de gestão fiscal atrasada.</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Conhecimento do Recurso de Reconsideração interposto e desprovimento no mérito, com manutenção integral da decisão recorrida.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>701503/2011</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE MACAU</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Recurso - Análise de gestão fiscal de 2011.</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Encaminhamento do Recurso de Reconsideração para concessão de provimento parcial com exclusão de uma multa, manutenção de outra e afastamento dos efeitos de inelegibilidade.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>003782/2009</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE SERRA DO MEL</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Recurso - Pedido de reconsideração sobre multas aplicadas</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Encaminhamento para reforma parcial do acórdão, reconhecendo a quitação do débito referente ao subsídio pago a maior, com manutenção das demais multas aplicadas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>004107/2020</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE FLORÂNIA</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Recurso - Pedido de reconsideração por omissão normativa.</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Encaminhamento para conhecer do recurso de Pedido de Reconsideração e, no mérito, negar-lhe provimento, mantendo integralmente a decisão anterior.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>004289/2019</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE PASSA E FICA</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Recurso - Pedido de reconsideração sobre irregularidades administrativas.</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Encaminhamento para conhecimento do recurso de Pedido de Reconsideração e, no mérito, negativa de provimento, mantendo integralmente a decisão anterior.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>700301/2010</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SÃO JOÃO DO SABUGI</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Recurso - Irregularidades na gestão fiscal de 2010</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Encaminhamento para manutenção integral da decisão anterior, com negativa de provimento ao recurso apresentado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>700627/2010</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE MAXARANGUAPE</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Informação Conclusiva - Análise de atraso em publicações fiscais.</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Encaminhamento para reformar parcialmente a decisão anterior, reclassificando irregularidades de "ausência de publicação" para "atraso na publicação" e ajustando as multas aplicadas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>004287/2019</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE PARAZINHO</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Recurso - Publicação incompleta de relatórios fiscais.</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Manutenção integral da decisão anterior com aplicação de multa, negando provimento ao Pedido de Reconsideração.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>001907/2021</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE BARAÚNA</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Irregularidades no pagamento de precatórios municipais</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Nesse contexto, esta Unidade de Controle Externo remete os autos à Diretoria de Controle de Contas de Gestão e Execução da Despesa Pública – DCD, para que avalie a possibilidade de registro do tema ora tratado como “Demanda Fiscalizatória” no âmbito do SISPFA, com o consequente cadastramento da matéria em conformidade com os parâmetros técnicos e classificações temáticas adequadas. 
+Outrossim, dê-se ciência à Secretaria de Controle Externo – SECEX, para que avalie, nos termos de sua competência, a viabilidade de inclusão, no modelo padrão de prestação de contas eletrônicas do Chefe do Poder Executivo Municipal, de campo específico destinado à juntada de “certidão de adimplência” relativa ao pagamento de precatórios judiciais, a ser expedida pelo Tribunal de Justiça do Estado do Rio Grande do Norte, como forma de aprimorar os instrumentos de verificação da regularidade fiscal dos entes jurisdicionados. 
+Em tempo, esta Unidade Técnica esclarece que os débitos de precatórios a que se refere o ofício inaugural deste processo são relativos ao exercício de 2021. Nesse exercício, a prefeita de Baraúna/RN era Maria Divanize Alves de Oliveira, que assumiu o cargo em 1º de janeiro de 2021. A gestora já foi citada nos autos através do expediente nº 001116/2022-TC (evento 24), e apresentou resposta no evento 32, subscrita pela Procuradora Geral do Município. A gestora municipal que a antecedeu foi Lúcia Maria Fernandes do Nascimento, que ocupou o cargo de 1º de janeiro de 2017 a 31 de dezembro de 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>701028/2012</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE BAÍA FORMOSA</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>ANTONIO ED SOUZA SANTANA</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Recurso - Prestação de contas e irregularidades fiscais</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Encaminhamento para manutenção integral da decisão recorrida, com negativa de provimento ao recurso de reconsideração.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>700920/2011</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE LAGOA NOVA</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Recurso - Irregularidades na gestão fiscal de 2011</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Encaminhamento para conhecimento do Recurso de Reconsideração e, no mérito, negativa de provimento, mantendo integralmente o acórdão anterior.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>700912/2011</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE MESSIAS TARGINO</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Recurso - Prescrição e arquivamento de penalidade fiscal</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Encaminhamento para reforma integral do Acórdão e arquivamento definitivo do processo devido à prescrição quinquenal da pretensão punitiva.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>700908/2012</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE TIBAU DO SUL</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Recurso - Regularidades e atrasos na gestão fiscal.</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Encaminhamento para o conhecimento e provimento parcial do recurso de reconsideração, com reforma parcial da decisão anterior e extensão dos efeitos da decisão ao Sr. Valdenício José da Costa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>003892/2020</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE BARCELONA</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Recurso - Pedido de reconsideração sobre transparência fiscal.</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Encaminhamento para conhecimento e julgamento do recurso, com proposta de manutenção integral da decisão original e das sanções aplicadas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>701195/2012</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SANTO ANTÔNIO</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Recurso - Manutenção de sanções por irregularidades fiscais.</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Encaminhamento para conhecimento dos recursos de reconsideração interpostos, com manutenção integral dos termos do acórdão recorrido e das sanções aplicadas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>009137/2006</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE ALMINO AFONSO</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Recurso - Análise de pedido de reconsideração.</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Encaminhamento para concessão de provimento parcial ao recurso, afastando a irregularidade e multa relativa à aquisição do veículo, mantendo a multa pela ausência de publicações fiscais e emitindo parecer prévio desfavorável para análise da Câmara Municipal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>005274/2010</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE APODI</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>005201/2010</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE MAJOR SALES</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>ANTONIO ED SOUZA SANTANA</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Recurso - Pedido de reconsideração sobre gestão fiscal</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Encaminhamento para reforma parcial do acórdão, reconhecendo a ilegitimidade passiva de Francisco de Sales Mafaldo e mantendo a responsabilização de Valdecir Nazário de Figueiredo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>006691/2008</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE RIO DO FOGO</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Recurso - Contestação sobre legitimidade passiva e nulidades</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Encaminhamento para o conhecimento e provimento do recurso, com reforma do acórdão e anulação das sanções impostas ao recorrente, excluindo-o do polo passivo do processo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>700643/2012</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE TENENTE LAURENTINO CRUZ</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>006304/2009</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE PENDÊNCIAS</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Recurso - Irregularidades em gestão fiscal e subsídios.</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Encaminhamento para conhecimento do recurso de reconsideração e, no mérito, seu desprovimento, com manutenção integral da decisão anterior.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>700643/2012</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE TENENTE LAURENTINO CRUZ</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Situação de entregas da Câmara Municipal</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Encaminhamento ao Tribunal de Contas do Estado do Rio Grande do Norte para análise da situação de entrega e regularidade de documentos fiscais e comprovações de publicação da Câmara Municipal de Tenente Laurentino Cruz no ano de 2012.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>005274/2010</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE APODI</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Regularidade na entrega de documentos fiscais</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Encaminhamento sobre a análise de entrega e publicação do RGF, RREOs e contas anuais da Prefeitura de Apodi no ano de 2010 ao Tribunal de Contas do Estado do Rio Grande do Norte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>005403/2010</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE TIBAU DO SUL</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Recurso - Análise de gestão fiscal municipal.</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Encaminhamento para concessão de parcial provimento ao recurso de reconsideração, com reforma parcial da decisão anterior e reclassificação das irregularidades identificadas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>700188/2011</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE CARNAÚBA DOS DANTAS</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Situação de envio de documentos obrigatórios.</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Encaminhamento ao Tribunal de Contas do Estado do Rio Grande do Norte para análise de atrasos e pendências na entrega de relatórios, contas anuais e comprovantes de publicação pela Câmara Municipal de Carnaúba dos Dantas no ano de 2010.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>700937/2012</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE JARDIM DE PIRANHAS</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Situação de entrega de documentos fiscais.</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Encaminhamento para análise da situação de entrega dos RGF, RREOs, contas anuais e comprovações de publicação pela Prefeitura Municipal de Jardim de Piranhas no ano de 2012.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>000419/2025</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>TRIBUNAL DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>07/04/2025</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Responsabilização de gestor municipal por precatórios.</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Ante o exposto, esta Unidade de Controle Externo remete os autos à  
+DIRETORIA DE CONTROLE DE CONTAS DE GESTÃO E EXECUÇÃO DA 
+DESPESA PÚBLICA - DCD para realização da instrução preliminar sumária dos autos, 
+conforme determinado pelo Relator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>012220/2008</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE TANGARÁ</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE TANGARÁ/RN. PRE S TAÇÃO DE  CONTAS DO EXERCÍCIO DE 2008. IRREGULARIDADE S  NA REME SS A E PUBLICAÇÃO DOS RELATÓRIOS FISCAIS. ATRASOS EXPRESSIVOS NA ENTREGA DOS RGFs E RREOs. AUS ÊNCIA DE C OMPROVANTES DE PUBLICAÇÃO. RESPONSABILIZAÇÃO OBJETIVA DOS GE S TORE S . ARGUMENTOS DE DEFE S A FUNDADOS EM PRESCRIÇÃO INTERCORRENTE E AUS ÊNCIA DE MÁ -FÉ. AFAS TAMENTO DAS ALEGAÇÕES. MANUTENÇÃO DAS PENALIDADES COM AJUS TE DE MULTA POR PROPORCIONALIDADE.</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>4. Conclusão: rejeição das alegações de defesa; desaprovação da matéria; aplicação de multas aos Srs. José Aluísio Vicente da Silva e Ewerton Thiago de Lima Silva por descump rimento de deveres legais relativos à transparência fiscal, com redução da multa aplicada ao primeiro em observância ao princípio da proporcionalidade.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>011829/2008</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE CANGUARETAMA</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Atrasos na entrega de documentos obrigatórios.</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Encaminhamento para análise da regularidade das entregas dos relatórios e comprovações de publicação pela Câmara Municipal de Canguaretama no ano de 2008.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>011829/2008</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE CANGUARETAMA</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Nenhum resumo encontrado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>700937/2012</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE JARDIM DE PIRANHAS</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE JARDIM DE PIRANHAS/RN. EXERCÍCIO DE 2012. ANÁLISE DE ENTREGA DE RELATÓRIOS FISCAIS. AUSÊNCIA DE COMPROVANTES DE PUBLICAÇÃO DO RGF E RREO. ALEGADA FALHA SISTÊMICA NO SISTEMA SIAI. CONCLUSÃO PELA REGULARIDADE.</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Conclusão: reconhecimento da regularidade das contas com fundamento no art. 73 da Lei Complementar Estadual nº 464/2012. Proposta de quitação dos responsáveis e arquivamento do feito, em virtude da inexistência de irregularidades materiais ou formais aptas a justificar sanções.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>700717/2011</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE SAO BENTO DO NORTE</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Entrega de documentos pela Câmara Municipal</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Encaminhamento do Tribunal de Contas do Estado do Rio Grande do Norte para análise da regularidade na entrega do RGF, RREOs, contas anuais e comprovantes de publicação pela Câmara Municipal de São Bento do Norte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>700717/2011</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE SAO BENTO DO NORTE</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Irregularidades identificadas : inicialmente foram apontadas (i) ausência de comprovação de publicação do Relatório de Gestão Fiscal do 1º semestre de 2011; (ii) atraso na publicação do RGF do 2º semestre; e (iii) possível extrapolação do subsídio do Presidente da Câmara Municipal, Fernando Matias da Silva Júnior, em afronta ao limite constitucional estabelecido.</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Conclusão: proposta de arquivamento do processo, com julgamento pela regularidade das contas de gestão fiscal da Câmara Municipal de São Bento do Norte/RN relativas ao exercício de 2011, e consequente quitação da responsabilidade do Sr. Fernando Matias da Silva Júnior.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>012220/2008</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE TANGARÁ</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>RENATO COSTA DIAS</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Atrasos na entrega de documentos fiscais</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Encaminhamento para análise e apuração de responsabilidades no âmbito do Tribunal de Contas do Estado do Rio Grande do Norte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>700188/2011</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE CARNAÚBA DOS DANTAS</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>ANTONIO GILBERTO DE OLIVEIRA JALES</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1. Irregularidades identificadas : (i) pagamento de subsídio à Presidente da Câmara em valor superior ao limite de 20% do subsídio dos Deputados Estaduais, totalizando R$ 7.916,26 a maior; (ii) atraso de 151 dias na remessa do RGF do 1º semestre de 2010; (iii) atraso na entrega dos RREOs dos três primeiros bimestres do exercício de 2010, com 263, 212 e 151 dias de atraso, respectivamente; (iv) descumprimento das obrigações de remessa de comprovantes de publicação, já abarcadas pelas infrações anteriores.</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Conclusão: (i) rejeição das alegações de defesa apresentadas pela Sra. Adjanira Dantas de Medeiros; (ii) imputação de ressarcimento ao erário no valor de R$ 7.916,26, com acréscimos legais; (iii) aplicação de multa proporcional de até 100% do débito imputado; (iv) aplicação de multa no valor de R$ 11.291,40 pelo atraso na entrega do RGF; (v) aplicação de três multas de R$ 1.000,00 cada pelos atrasos nos RREOs dos três primeiros bimestres de 2010; (vi) afastamento da responsabilidade do gestor Fábio Ronan Dantas Pereira.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>012007/2014</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE TIBAU DO SUL</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>CARLOS THOMPSON COSTA FERNANDES</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>27/06/2025</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Recurso - Violação do limite de gastos pessoais</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Encaminhamento do Pedido de Reconsideração para conhecimento e negativa de provimento, com manutenção integral da decisão anterior e aplicação da multa ao gestor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>004384/2022</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>TRIBUNAL DE CONTAS DO ESTADO</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>SEM RELATOR</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>27/06/2025</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Arquivamento de processo de contas anuais.</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Dessa forma, considerando o teor meramente informativo do expediente encaminhado pela Câmara Municipal de Goianinha/RN e a ausência de providências adicionais a serem adotadas no presente feito, esta Unidade Técnica de Controle Externo remete os autos à Diretoria de Expediente – DE, para que se promova o arquivamento na forma determinada pela Conselheira Relatora.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>013740/2014</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SERRA CAIADA</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>27/06/2025</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Recurso - Atrasos mínimos na gestão fiscal 2013</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Encaminhamento para conhecimento e concessão de provimento parcial ao Recurso de Reconsideração, com redução das multas aplicadas ao patamar mínimo, observando o Princípio da Proporcionalidade.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>700966/2012</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE ITAJÁ</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>CARLOS THOMPSON COSTA FERNANDES</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>27/06/2025</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Informação Conclusiva - Irregularidades na gestão fiscal de 2012.</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Encaminhamento para arquivamento do processo em relação ao falecido responsável e manutenção das sanções aplicadas ao outro gestor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>003148/2018</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>CÂMARA MUNICIPAL DE UPANEMA</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>PAULO ROBERTO CHAVES ALVES</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Recurso - Envio extemporâneo de contas anuais.</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Encaminhamento à consideração superior para manter o acórdão previamente definido, negando provimento ao pedido de reconsideração.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>000838/2025</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SEVERIANO MELO</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Contas anuais do Poder Executivo</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Encaminhamento do documento ao processo principal por meio de apensamento realizado eletronicamente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>000838/2025</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SEVERIANO MELO</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Análise das contas municipais 2021-2023</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Encaminhamento de apensamento de documentação ao processo no Tribunal de Contas do Estado do Rio Grande do Norte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>000821/2025</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE PARELHAS</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>09/06/2025</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Contas do Poder Executivo Municipal</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Apensamento de documento ao processo referente às contas do chefe do Poder Executivo da Prefeitura Municipal de Parelhas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>000838/2025</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>PREFEITURA MUNICIPAL DE SEVERIANO MELO</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>GEORGE MONTENEGRO SOARES</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Análise de contas do executivo municipal.</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Encaminhamento do documento apensado ao processo no Tribunal de Contas do Estado do Rio Grande do Norte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>000739/2023</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>GOVERNO DO ESTADO DO RN</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>FRANCISCO POTIGUAR CAVALCANTI JÚNIOR</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Informação Instrutiva - Acompanhamento da adoção do SIGEF estadual</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Encaminhamento da Coordenadoria de Instrução Processual para acompanhamento da adoção do SIGEF como SIAFIC pelos poderes e órgãos autônomos estaduais no Rio Grande do Norte.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
